--- a/calculators/vehicle-calculator.xlsx
+++ b/calculators/vehicle-calculator.xlsx
@@ -19,8 +19,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unbekannter Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All of these weapons get the open-topped rule, the cost reduction of which is already included.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In historical scenarios, there might be additional modifiers other than the hard factors like loadout.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In historical scenarios, there might be additional modifiers other than the hard factors like loadout.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t xml:space="preserve">H.E.A.T. Vehicle Cost Calculator Sheet v1.0</t>
   </si>
@@ -91,18 +137,123 @@
     <t xml:space="preserve">Transport Capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiplied by 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Weapon System</t>
+    <t xml:space="preserve">Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light machinegun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium machinegun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy machinegun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic grenade launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-materiell rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light autocannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium autocannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy autocannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light AT gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium AT gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy AT gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super-Heavy AT gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light howitzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium howitzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy howitzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamethrower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hell Cannon Mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light ATGM Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGM Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light MANPADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANPADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLRS/Multiple Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium rocket pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy rocket pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clusterbomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBIED</t>
   </si>
   <si>
     <t xml:space="preserve">Pintle Mounted Weapon System</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional Weapon System</t>
-  </si>
-  <si>
     <t xml:space="preserve">Role</t>
   </si>
   <si>
@@ -140,6 +291,12 @@
   </si>
   <si>
     <t xml:space="preserve">Thermal Sights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coaxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical costs</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Costs</t>
@@ -152,11 +309,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,17 +335,25 @@
       <sz val="10"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Cascadia Code SemiBold"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Cascadia Code SemiBold"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,12 +364,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -253,44 +440,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,402 +616,785 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G53"/>
+  <dimension ref="B2:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.01"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="8" t="n">
         <v>110</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="8" t="n">
         <v>350</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="8" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="D18" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="11"/>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11"/>
+      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11"/>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11"/>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="11"/>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="11"/>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="11"/>
+      <c r="C39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="11"/>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="11"/>
+      <c r="C41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="11"/>
+      <c r="C42" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="11"/>
+      <c r="C43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="11"/>
+      <c r="C45" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="11"/>
+      <c r="C46" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="11"/>
+      <c r="C47" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="11"/>
+      <c r="C48" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="11"/>
+      <c r="C49" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="11"/>
+      <c r="C50" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="11"/>
+      <c r="C52" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="11"/>
+      <c r="C53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="8" t="s">
+      <c r="D54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="12"/>
+      <c r="C55" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="8" t="s">
+      <c r="D55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="12"/>
+      <c r="C56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="D56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="12"/>
+      <c r="C57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="12"/>
+      <c r="C58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="12"/>
+      <c r="C59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="12"/>
+      <c r="C60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="12"/>
+      <c r="C61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="7" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="8"/>
-      <c r="C41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="0" t="n">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="11"/>
+      <c r="C63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="9" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="0" t="n">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="8"/>
-      <c r="C45" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="0" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="11"/>
+      <c r="C67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="9" t="n">
         <v>-5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="8"/>
-      <c r="C46" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="0" t="n">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="11"/>
+      <c r="C68" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="8"/>
-      <c r="C47" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="0" t="n">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="11"/>
+      <c r="C69" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="9" t="n">
         <v>-10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="8"/>
-      <c r="C48" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="0" t="n">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="11"/>
+      <c r="C70" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="9" t="n">
         <v>-5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="8"/>
-      <c r="C49" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="0" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="11"/>
+      <c r="C71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="9" t="n">
         <v>-10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="8"/>
-      <c r="C50" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="0" t="n">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="11"/>
+      <c r="C72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="9" t="n">
         <v>-20</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8"/>
-      <c r="C51" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="0" t="n">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="11"/>
+      <c r="C73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="8"/>
-      <c r="C52" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="0" t="n">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="11"/>
+      <c r="C74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="9" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="11"/>
+      <c r="C75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="11"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="11"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="11"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="11"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="11"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B19:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="B85:B93"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -821,5 +1403,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/calculators/vehicle-calculator.xlsx
+++ b/calculators/vehicle-calculator.xlsx
@@ -32,35 +32,57 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This includes all weapons on the vehicle, additional modifiers like open topped or coaxial are deduced later.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0">
+    <comment ref="C76" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">In historical scenarios, there might be additional modifiers other than the hard factors like loadout.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C79" authorId="0">
+    <comment ref="C81" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Keep in mind that units from this calculator represent the stock option. Other weapons might be added on later as optional weapons and rules.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">JSFT 20pt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">EW System 20pt
+</t>
         </r>
       </text>
     </comment>
@@ -69,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t xml:space="preserve">H.E.A.T. Vehicle Cost Calculator Sheet v1.0</t>
   </si>
@@ -98,6 +120,9 @@
     <t xml:space="preserve">Eurocopter</t>
   </si>
   <si>
+    <t xml:space="preserve">M113 mortar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wiesel I Mörser 120mm </t>
   </si>
   <si>
@@ -407,6 +432,9 @@
     <t xml:space="preserve">Slow</t>
   </si>
   <si>
+    <t xml:space="preserve">Spotter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slow Load</t>
   </si>
   <si>
@@ -429,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coaxial weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Rule</t>
   </si>
   <si>
     <t xml:space="preserve">Historical costs</t>
@@ -459,10 +490,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -495,6 +527,11 @@
       <name val="Cascadia Code SemiBold"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,7 +625,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,10 +694,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,7 +706,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,59 +833,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:DF81"/>
+  <dimension ref="C2:DG87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="G31" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
-      <selection pane="topRight" activeCell="H54" activeCellId="0" sqref="H54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="AB62" activeCellId="0" sqref="AB62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="30.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="22.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="38" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="23.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="30.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="39" style="1" width="2.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="J1" s="1"/>
-    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,19 +887,15 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -978,7 +1001,9 @@
       <c r="AK4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL4" s="7"/>
+      <c r="AL4" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -995,7 +1020,7 @@
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
-      <c r="BC4" s="9"/>
+      <c r="BC4" s="7"/>
       <c r="BD4" s="9"/>
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
@@ -1051,14 +1076,14 @@
       <c r="DD4" s="9"/>
       <c r="DE4" s="9"/>
       <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0"/>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>15</v>
@@ -1168,12 +1193,12 @@
       <c r="DD5" s="9"/>
       <c r="DE5" s="9"/>
       <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
       <c r="C6" s="10"/>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>50</v>
@@ -1192,22 +1217,54 @@
       <c r="K6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="L6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -1291,12 +1348,12 @@
       <c r="DD6" s="9"/>
       <c r="DE6" s="9"/>
       <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0"/>
       <c r="C7" s="10"/>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>70</v>
@@ -1323,7 +1380,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
@@ -1406,12 +1465,12 @@
       <c r="DD7" s="9"/>
       <c r="DE7" s="9"/>
       <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0"/>
       <c r="C8" s="10"/>
       <c r="D8" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>110</v>
@@ -1523,12 +1582,12 @@
       <c r="DD8" s="9"/>
       <c r="DE8" s="9"/>
       <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0"/>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>190</v>
@@ -1638,12 +1697,12 @@
       <c r="DD9" s="9"/>
       <c r="DE9" s="9"/>
       <c r="DF9" s="9"/>
+      <c r="DG9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>350</v>
@@ -1753,14 +1812,14 @@
       <c r="DD10" s="9"/>
       <c r="DE10" s="9"/>
       <c r="DF10" s="9"/>
+      <c r="DG10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
       <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="n">
         <v>5</v>
@@ -1870,12 +1929,12 @@
       <c r="DD11" s="9"/>
       <c r="DE11" s="9"/>
       <c r="DF11" s="9"/>
+      <c r="DG11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>10</v>
@@ -1985,12 +2044,12 @@
       <c r="DD12" s="9"/>
       <c r="DE12" s="9"/>
       <c r="DF12" s="9"/>
+      <c r="DG12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="9" t="n">
         <v>20</v>
@@ -2100,12 +2159,12 @@
       <c r="DD13" s="9"/>
       <c r="DE13" s="9"/>
       <c r="DF13" s="9"/>
+      <c r="DG13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9" t="n">
         <v>40</v>
@@ -2215,12 +2274,12 @@
       <c r="DD14" s="9"/>
       <c r="DE14" s="9"/>
       <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>80</v>
@@ -2330,12 +2389,12 @@
       <c r="DD15" s="9"/>
       <c r="DE15" s="9"/>
       <c r="DF15" s="9"/>
+      <c r="DG15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>120</v>
@@ -2445,12 +2504,12 @@
       <c r="DD16" s="9"/>
       <c r="DE16" s="9"/>
       <c r="DF16" s="9"/>
+      <c r="DG16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
       <c r="C17" s="10"/>
       <c r="D17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>-10</v>
@@ -2560,14 +2619,14 @@
       <c r="DD17" s="9"/>
       <c r="DE17" s="9"/>
       <c r="DF17" s="9"/>
+      <c r="DG17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
       <c r="C18" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>25</v>
@@ -2677,12 +2736,12 @@
       <c r="DD18" s="9"/>
       <c r="DE18" s="9"/>
       <c r="DF18" s="9"/>
+      <c r="DG18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="n">
         <v>40</v>
@@ -2794,12 +2853,12 @@
       <c r="DD19" s="9"/>
       <c r="DE19" s="9"/>
       <c r="DF19" s="9"/>
+      <c r="DG19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
       <c r="C20" s="10"/>
       <c r="D20" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9" t="n">
         <v>55</v>
@@ -2909,12 +2968,12 @@
       <c r="DD20" s="9"/>
       <c r="DE20" s="9"/>
       <c r="DF20" s="9"/>
+      <c r="DG20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
       <c r="C21" s="10"/>
       <c r="D21" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="9" t="n">
         <v>60</v>
@@ -3024,14 +3083,14 @@
       <c r="DD21" s="9"/>
       <c r="DE21" s="9"/>
       <c r="DF21" s="9"/>
+      <c r="DG21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
       <c r="C22" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9" t="n">
         <v>2</v>
@@ -3046,19 +3105,45 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
+      <c r="P22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="T22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="U22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X22" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
@@ -3141,14 +3226,14 @@
       <c r="DD22" s="9"/>
       <c r="DE22" s="9"/>
       <c r="DF22" s="9"/>
+      <c r="DG22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
       <c r="C23" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>5</v>
@@ -3258,12 +3343,12 @@
       <c r="DD23" s="9"/>
       <c r="DE23" s="9"/>
       <c r="DF23" s="9"/>
+      <c r="DG23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
       <c r="C24" s="16"/>
       <c r="D24" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>10</v>
@@ -3291,8 +3376,12 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
+      <c r="AA24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -3375,12 +3464,12 @@
       <c r="DD24" s="9"/>
       <c r="DE24" s="9"/>
       <c r="DF24" s="9"/>
+      <c r="DG24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
       <c r="C25" s="16"/>
       <c r="D25" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>20</v>
@@ -3490,18 +3579,18 @@
       <c r="DD25" s="9"/>
       <c r="DE25" s="9"/>
       <c r="DF25" s="9"/>
+      <c r="DG25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>20</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -3607,12 +3696,12 @@
       <c r="DD26" s="9"/>
       <c r="DE26" s="9"/>
       <c r="DF26" s="9"/>
+      <c r="DG26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
       <c r="C27" s="16"/>
       <c r="D27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>20</v>
@@ -3722,18 +3811,18 @@
       <c r="DD27" s="9"/>
       <c r="DE27" s="9"/>
       <c r="DF27" s="9"/>
+      <c r="DG27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="9" t="n">
         <v>30</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -3755,7 +3844,9 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
@@ -3839,18 +3930,18 @@
       <c r="DD28" s="9"/>
       <c r="DE28" s="9"/>
       <c r="DF28" s="9"/>
+      <c r="DG28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
       <c r="C29" s="16"/>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="9" t="n">
         <v>40</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -3875,7 +3966,9 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
+      <c r="AB29" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -3958,18 +4051,18 @@
       <c r="DD29" s="9"/>
       <c r="DE29" s="9"/>
       <c r="DF29" s="9"/>
+      <c r="DG29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0"/>
       <c r="C30" s="16"/>
       <c r="D30" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="9" t="n">
         <v>50</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -4075,18 +4168,18 @@
       <c r="DD30" s="9"/>
       <c r="DE30" s="9"/>
       <c r="DF30" s="9"/>
+      <c r="DG30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
       <c r="C31" s="16"/>
       <c r="D31" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>50</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -4192,18 +4285,18 @@
       <c r="DD31" s="9"/>
       <c r="DE31" s="9"/>
       <c r="DF31" s="9"/>
+      <c r="DG31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
       <c r="C32" s="16"/>
       <c r="D32" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>70</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -4309,18 +4402,18 @@
       <c r="DD32" s="9"/>
       <c r="DE32" s="9"/>
       <c r="DF32" s="9"/>
+      <c r="DG32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
       <c r="C33" s="16"/>
       <c r="D33" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="9" t="n">
         <v>110</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>1</v>
@@ -4428,18 +4521,18 @@
       <c r="DD33" s="9"/>
       <c r="DE33" s="9"/>
       <c r="DF33" s="9"/>
+      <c r="DG33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
       <c r="C34" s="16"/>
       <c r="D34" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>190</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -4545,12 +4638,12 @@
       <c r="DD34" s="9"/>
       <c r="DE34" s="9"/>
       <c r="DF34" s="9"/>
+      <c r="DG34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
       <c r="C35" s="16"/>
       <c r="D35" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>50</v>
@@ -4660,12 +4753,12 @@
       <c r="DD35" s="9"/>
       <c r="DE35" s="9"/>
       <c r="DF35" s="9"/>
+      <c r="DG35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
       <c r="C36" s="16"/>
       <c r="D36" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>60</v>
@@ -4777,12 +4870,12 @@
       <c r="DD36" s="9"/>
       <c r="DE36" s="9"/>
       <c r="DF36" s="9"/>
+      <c r="DG36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
       <c r="C37" s="16"/>
       <c r="D37" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="9" t="n">
         <v>100</v>
@@ -4892,12 +4985,12 @@
       <c r="DD37" s="9"/>
       <c r="DE37" s="9"/>
       <c r="DF37" s="9"/>
+      <c r="DG37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
       <c r="C38" s="16"/>
       <c r="D38" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>50</v>
@@ -5007,12 +5100,12 @@
       <c r="DD38" s="9"/>
       <c r="DE38" s="9"/>
       <c r="DF38" s="9"/>
+      <c r="DG38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
       <c r="C39" s="16"/>
       <c r="D39" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>55</v>
@@ -5122,12 +5215,12 @@
       <c r="DD39" s="9"/>
       <c r="DE39" s="9"/>
       <c r="DF39" s="9"/>
+      <c r="DG39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
       <c r="C40" s="16"/>
       <c r="D40" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>75</v>
@@ -5140,7 +5233,9 @@
       <c r="K40" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -5239,12 +5334,12 @@
       <c r="DD40" s="9"/>
       <c r="DE40" s="9"/>
       <c r="DF40" s="9"/>
+      <c r="DG40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
       <c r="C41" s="16"/>
       <c r="D41" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>70</v>
@@ -5354,12 +5449,12 @@
       <c r="DD41" s="9"/>
       <c r="DE41" s="9"/>
       <c r="DF41" s="9"/>
+      <c r="DG41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
       <c r="C42" s="16"/>
       <c r="D42" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="9" t="n">
         <v>30</v>
@@ -5469,12 +5564,12 @@
       <c r="DD42" s="9"/>
       <c r="DE42" s="9"/>
       <c r="DF42" s="9"/>
+      <c r="DG42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
       <c r="C43" s="16"/>
       <c r="D43" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="9" t="n">
         <v>50</v>
@@ -5584,12 +5679,12 @@
       <c r="DD43" s="9"/>
       <c r="DE43" s="9"/>
       <c r="DF43" s="9"/>
+      <c r="DG43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0"/>
       <c r="C44" s="16"/>
       <c r="D44" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>30</v>
@@ -5699,12 +5794,12 @@
       <c r="DD44" s="9"/>
       <c r="DE44" s="9"/>
       <c r="DF44" s="9"/>
+      <c r="DG44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
       <c r="C45" s="16"/>
       <c r="D45" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>45</v>
@@ -5814,12 +5909,12 @@
       <c r="DD45" s="9"/>
       <c r="DE45" s="9"/>
       <c r="DF45" s="9"/>
+      <c r="DG45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0"/>
       <c r="C46" s="16"/>
       <c r="D46" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>70</v>
@@ -5931,12 +6026,12 @@
       <c r="DD46" s="9"/>
       <c r="DE46" s="9"/>
       <c r="DF46" s="9"/>
+      <c r="DG46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0"/>
       <c r="C47" s="16"/>
       <c r="D47" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="9" t="n">
         <v>50</v>
@@ -6046,12 +6141,12 @@
       <c r="DD47" s="9"/>
       <c r="DE47" s="9"/>
       <c r="DF47" s="9"/>
+      <c r="DG47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0"/>
       <c r="C48" s="16"/>
       <c r="D48" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="9" t="n">
         <v>70</v>
@@ -6161,12 +6256,12 @@
       <c r="DD48" s="9"/>
       <c r="DE48" s="9"/>
       <c r="DF48" s="9"/>
+      <c r="DG48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0"/>
       <c r="C49" s="16"/>
       <c r="D49" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>110</v>
@@ -6276,12 +6371,12 @@
       <c r="DD49" s="9"/>
       <c r="DE49" s="9"/>
       <c r="DF49" s="9"/>
+      <c r="DG49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0"/>
       <c r="C50" s="16"/>
       <c r="D50" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="9" t="n">
         <v>40</v>
@@ -6391,12 +6486,12 @@
       <c r="DD50" s="9"/>
       <c r="DE50" s="9"/>
       <c r="DF50" s="9"/>
+      <c r="DG50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
       <c r="C51" s="16"/>
       <c r="D51" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="9" t="n">
         <v>65</v>
@@ -6506,12 +6601,12 @@
       <c r="DD51" s="9"/>
       <c r="DE51" s="9"/>
       <c r="DF51" s="9"/>
+      <c r="DG51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0"/>
       <c r="C52" s="16"/>
       <c r="D52" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="9" t="n">
         <v>90</v>
@@ -6621,12 +6716,12 @@
       <c r="DD52" s="9"/>
       <c r="DE52" s="9"/>
       <c r="DF52" s="9"/>
+      <c r="DG52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0"/>
       <c r="C53" s="16"/>
       <c r="D53" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53" s="9" t="n">
         <v>60</v>
@@ -6736,12 +6831,12 @@
       <c r="DD53" s="9"/>
       <c r="DE53" s="9"/>
       <c r="DF53" s="9"/>
+      <c r="DG53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0"/>
       <c r="C54" s="16"/>
       <c r="D54" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54" s="9" t="n">
         <v>80</v>
@@ -6851,12 +6946,12 @@
       <c r="DD54" s="9"/>
       <c r="DE54" s="9"/>
       <c r="DF54" s="9"/>
+      <c r="DG54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0"/>
       <c r="C55" s="16"/>
       <c r="D55" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="9" t="n">
         <v>100</v>
@@ -6966,12 +7061,12 @@
       <c r="DD55" s="9"/>
       <c r="DE55" s="9"/>
       <c r="DF55" s="9"/>
+      <c r="DG55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0"/>
       <c r="C56" s="16"/>
       <c r="D56" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" s="9" t="n">
         <v>100</v>
@@ -7081,12 +7176,12 @@
       <c r="DD56" s="9"/>
       <c r="DE56" s="9"/>
       <c r="DF56" s="9"/>
+      <c r="DG56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0"/>
       <c r="C57" s="16"/>
       <c r="D57" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="9" t="n">
         <v>80</v>
@@ -7196,12 +7291,12 @@
       <c r="DD57" s="9"/>
       <c r="DE57" s="9"/>
       <c r="DF57" s="9"/>
+      <c r="DG57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0"/>
-      <c r="C58" s="17"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58" s="9" t="n">
         <v>10</v>
@@ -7215,24 +7310,42 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="K58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
+      <c r="U58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
+      <c r="X58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -7315,14 +7428,14 @@
       <c r="DD58" s="9"/>
       <c r="DE58" s="9"/>
       <c r="DF58" s="9"/>
+      <c r="DG58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0"/>
       <c r="C59" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="9" t="n">
         <v>10</v>
@@ -7432,12 +7545,12 @@
       <c r="DD59" s="9"/>
       <c r="DE59" s="9"/>
       <c r="DF59" s="9"/>
+      <c r="DG59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0"/>
       <c r="C60" s="16"/>
       <c r="D60" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" s="9" t="n">
         <v>15</v>
@@ -7547,12 +7660,12 @@
       <c r="DD60" s="9"/>
       <c r="DE60" s="9"/>
       <c r="DF60" s="9"/>
+      <c r="DG60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0"/>
       <c r="C61" s="16"/>
       <c r="D61" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" s="9" t="n">
         <v>-20</v>
@@ -7662,14 +7775,14 @@
       <c r="DD61" s="9"/>
       <c r="DE61" s="9"/>
       <c r="DF61" s="9"/>
+      <c r="DG61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0"/>
       <c r="C62" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="9" t="n">
         <v>5</v>
@@ -7679,11 +7792,19 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="K62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -7779,12 +7900,12 @@
       <c r="DD62" s="9"/>
       <c r="DE62" s="9"/>
       <c r="DF62" s="9"/>
+      <c r="DG62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
       <c r="C63" s="16"/>
       <c r="D63" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" s="9" t="n">
         <v>-5</v>
@@ -7794,8 +7915,12 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="K63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -7803,7 +7928,9 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
+      <c r="T63" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
@@ -7894,12 +8021,12 @@
       <c r="DD63" s="9"/>
       <c r="DE63" s="9"/>
       <c r="DF63" s="9"/>
+      <c r="DG63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0"/>
       <c r="C64" s="16"/>
       <c r="D64" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E64" s="9" t="n">
         <v>10</v>
@@ -8009,12 +8136,12 @@
       <c r="DD64" s="9"/>
       <c r="DE64" s="9"/>
       <c r="DF64" s="9"/>
+      <c r="DG64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0"/>
       <c r="C65" s="16"/>
       <c r="D65" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="9" t="n">
         <v>-10</v>
@@ -8124,15 +8251,15 @@
       <c r="DD65" s="9"/>
       <c r="DE65" s="9"/>
       <c r="DF65" s="9"/>
+      <c r="DG65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0"/>
       <c r="C66" s="16"/>
       <c r="D66" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" s="9" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="9"/>
@@ -8141,15 +8268,21 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
+      <c r="M66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
+      <c r="U66" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
@@ -8239,15 +8372,15 @@
       <c r="DD66" s="9"/>
       <c r="DE66" s="9"/>
       <c r="DF66" s="9"/>
+      <c r="DG66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0"/>
       <c r="C67" s="16"/>
       <c r="D67" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E67" s="9" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="9"/>
@@ -8354,15 +8487,15 @@
       <c r="DD67" s="9"/>
       <c r="DE67" s="9"/>
       <c r="DF67" s="9"/>
+      <c r="DG67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0"/>
       <c r="C68" s="16"/>
       <c r="D68" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68" s="9" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="9"/>
@@ -8469,15 +8602,15 @@
       <c r="DD68" s="9"/>
       <c r="DE68" s="9"/>
       <c r="DF68" s="9"/>
+      <c r="DG68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0"/>
       <c r="C69" s="16"/>
       <c r="D69" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" s="9" t="n">
-        <v>15</v>
+        <v>-20</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="9"/>
@@ -8584,15 +8717,15 @@
       <c r="DD69" s="9"/>
       <c r="DE69" s="9"/>
       <c r="DF69" s="9"/>
+      <c r="DG69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0"/>
       <c r="C70" s="16"/>
       <c r="D70" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="9"/>
@@ -8699,15 +8832,15 @@
       <c r="DD70" s="9"/>
       <c r="DE70" s="9"/>
       <c r="DF70" s="9"/>
+      <c r="DG70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0"/>
       <c r="C71" s="16"/>
       <c r="D71" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E71" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="9"/>
@@ -8814,15 +8947,15 @@
       <c r="DD71" s="9"/>
       <c r="DE71" s="9"/>
       <c r="DF71" s="9"/>
+      <c r="DG71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0"/>
       <c r="C72" s="16"/>
       <c r="D72" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E72" s="9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="9"/>
@@ -8929,20 +9062,18 @@
       <c r="DD72" s="9"/>
       <c r="DE72" s="9"/>
       <c r="DF72" s="9"/>
+      <c r="DG72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0"/>
       <c r="C73" s="16"/>
       <c r="D73" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E73" s="9" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -8962,8 +9093,12 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
+      <c r="AA73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
       <c r="AE73" s="9"/>
@@ -9046,25 +9181,23 @@
       <c r="DD73" s="9"/>
       <c r="DE73" s="9"/>
       <c r="DF73" s="9"/>
+      <c r="DG73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0"/>
-      <c r="C74" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="11" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="16"/>
+      <c r="D74" s="13" t="s">
         <v>121</v>
       </c>
       <c r="E74" s="9" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -9081,8 +9214,12 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
+      <c r="AA74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
       <c r="AE74" s="9"/>
@@ -9165,34 +9302,30 @@
       <c r="DD74" s="9"/>
       <c r="DE74" s="9"/>
       <c r="DF74" s="9"/>
+      <c r="DG74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0"/>
       <c r="C75" s="16"/>
       <c r="D75" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E75" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="N75" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -9288,20 +9421,20 @@
       <c r="DD75" s="9"/>
       <c r="DE75" s="9"/>
       <c r="DF75" s="9"/>
+      <c r="DG75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="14" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C76" s="16" t="s">
         <v>123</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>10</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9" t="n">
@@ -9311,1314 +9444,1574 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
+      <c r="O76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="9"/>
+      <c r="AN76" s="9"/>
+      <c r="AO76" s="9"/>
+      <c r="AP76" s="9"/>
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="9"/>
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="9"/>
+      <c r="AV76" s="9"/>
+      <c r="AW76" s="9"/>
+      <c r="AX76" s="9"/>
+      <c r="AY76" s="9"/>
+      <c r="AZ76" s="9"/>
+      <c r="BA76" s="9"/>
+      <c r="BB76" s="9"/>
+      <c r="BC76" s="9"/>
+      <c r="BD76" s="9"/>
+      <c r="BE76" s="9"/>
+      <c r="BF76" s="9"/>
+      <c r="BG76" s="9"/>
+      <c r="BH76" s="9"/>
+      <c r="BI76" s="9"/>
+      <c r="BJ76" s="9"/>
+      <c r="BK76" s="9"/>
+      <c r="BL76" s="9"/>
+      <c r="BM76" s="9"/>
+      <c r="BN76" s="9"/>
+      <c r="BO76" s="9"/>
+      <c r="BP76" s="9"/>
+      <c r="BQ76" s="9"/>
+      <c r="BR76" s="9"/>
+      <c r="BS76" s="9"/>
+      <c r="BT76" s="9"/>
+      <c r="BU76" s="9"/>
+      <c r="BV76" s="9"/>
+      <c r="BW76" s="9"/>
+      <c r="BX76" s="9"/>
+      <c r="BY76" s="9"/>
+      <c r="BZ76" s="9"/>
+      <c r="CA76" s="9"/>
+      <c r="CB76" s="9"/>
+      <c r="CC76" s="9"/>
+      <c r="CD76" s="9"/>
+      <c r="CE76" s="9"/>
+      <c r="CF76" s="9"/>
+      <c r="CG76" s="9"/>
+      <c r="CH76" s="9"/>
+      <c r="CI76" s="9"/>
+      <c r="CJ76" s="9"/>
+      <c r="CK76" s="9"/>
+      <c r="CL76" s="9"/>
+      <c r="CM76" s="9"/>
+      <c r="CN76" s="9"/>
+      <c r="CO76" s="9"/>
+      <c r="CP76" s="9"/>
+      <c r="CQ76" s="9"/>
+      <c r="CR76" s="9"/>
+      <c r="CS76" s="9"/>
+      <c r="CT76" s="9"/>
+      <c r="CU76" s="9"/>
+      <c r="CV76" s="9"/>
+      <c r="CW76" s="9"/>
+      <c r="CX76" s="9"/>
+      <c r="CY76" s="9"/>
+      <c r="CZ76" s="9"/>
+      <c r="DA76" s="9"/>
+      <c r="DB76" s="9"/>
+      <c r="DC76" s="9"/>
+      <c r="DD76" s="9"/>
+      <c r="DE76" s="9"/>
+      <c r="DF76" s="9"/>
+      <c r="DG76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0"/>
-      <c r="E77" s="9"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="16"/>
+      <c r="D77" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="F77" s="12"/>
-      <c r="J77" s="1"/>
+      <c r="G77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
+      <c r="AM77" s="9"/>
+      <c r="AN77" s="9"/>
+      <c r="AO77" s="9"/>
+      <c r="AP77" s="9"/>
+      <c r="AQ77" s="9"/>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+      <c r="AV77" s="9"/>
+      <c r="AW77" s="9"/>
+      <c r="AX77" s="9"/>
+      <c r="AY77" s="9"/>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="9"/>
+      <c r="BB77" s="9"/>
+      <c r="BC77" s="9"/>
+      <c r="BD77" s="9"/>
+      <c r="BE77" s="9"/>
+      <c r="BF77" s="9"/>
+      <c r="BG77" s="9"/>
+      <c r="BH77" s="9"/>
+      <c r="BI77" s="9"/>
+      <c r="BJ77" s="9"/>
+      <c r="BK77" s="9"/>
+      <c r="BL77" s="9"/>
+      <c r="BM77" s="9"/>
+      <c r="BN77" s="9"/>
+      <c r="BO77" s="9"/>
+      <c r="BP77" s="9"/>
+      <c r="BQ77" s="9"/>
+      <c r="BR77" s="9"/>
+      <c r="BS77" s="9"/>
+      <c r="BT77" s="9"/>
+      <c r="BU77" s="9"/>
+      <c r="BV77" s="9"/>
+      <c r="BW77" s="9"/>
+      <c r="BX77" s="9"/>
+      <c r="BY77" s="9"/>
+      <c r="BZ77" s="9"/>
+      <c r="CA77" s="9"/>
+      <c r="CB77" s="9"/>
+      <c r="CC77" s="9"/>
+      <c r="CD77" s="9"/>
+      <c r="CE77" s="9"/>
+      <c r="CF77" s="9"/>
+      <c r="CG77" s="9"/>
+      <c r="CH77" s="9"/>
+      <c r="CI77" s="9"/>
+      <c r="CJ77" s="9"/>
+      <c r="CK77" s="9"/>
+      <c r="CL77" s="9"/>
+      <c r="CM77" s="9"/>
+      <c r="CN77" s="9"/>
+      <c r="CO77" s="9"/>
+      <c r="CP77" s="9"/>
+      <c r="CQ77" s="9"/>
+      <c r="CR77" s="9"/>
+      <c r="CS77" s="9"/>
+      <c r="CT77" s="9"/>
+      <c r="CU77" s="9"/>
+      <c r="CV77" s="9"/>
+      <c r="CW77" s="9"/>
+      <c r="CX77" s="9"/>
+      <c r="CY77" s="9"/>
+      <c r="CZ77" s="9"/>
+      <c r="DA77" s="9"/>
+      <c r="DB77" s="9"/>
+      <c r="DC77" s="9"/>
+      <c r="DD77" s="9"/>
+      <c r="DE77" s="9"/>
+      <c r="DF77" s="9"/>
+      <c r="DG77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="21" t="str">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="16"/>
+      <c r="D78" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E79" s="9"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="20" t="str">
         <f aca="false">G4</f>
         <v>Leopard 2A6</v>
       </c>
-      <c r="H78" s="21" t="str">
+      <c r="H80" s="20" t="str">
         <f aca="false">H4</f>
         <v>PzH 2000</v>
       </c>
-      <c r="I78" s="21" t="str">
+      <c r="I80" s="20" t="str">
         <f aca="false">I4</f>
         <v>MARS II</v>
       </c>
-      <c r="J78" s="21" t="str">
+      <c r="J80" s="20" t="str">
         <f aca="false">J4</f>
         <v>Eurocopter</v>
       </c>
-      <c r="K78" s="21" t="str">
+      <c r="K80" s="20" t="str">
         <f aca="false">K4</f>
+        <v>M113 mortar</v>
+      </c>
+      <c r="L80" s="20" t="str">
+        <f aca="false">L4</f>
         <v>Wiesel I Mörser 120mm </v>
       </c>
-      <c r="L78" s="21" t="str">
-        <f aca="false">L4</f>
+      <c r="M80" s="20" t="str">
+        <f aca="false">M4</f>
         <v>M113 Feuerleitpanzer </v>
       </c>
-      <c r="M78" s="21" t="str">
-        <f aca="false">M4</f>
+      <c r="N80" s="20" t="str">
+        <f aca="false">N4</f>
         <v>Joint Fire Support Team Fennek 1A4 </v>
       </c>
-      <c r="N78" s="21" t="str">
-        <f aca="false">N4</f>
+      <c r="O80" s="20" t="str">
+        <f aca="false">O4</f>
         <v>Störpanzer Hummel </v>
       </c>
-      <c r="O78" s="21" t="str">
-        <f aca="false">O4</f>
+      <c r="P80" s="20" t="str">
+        <f aca="false">P4</f>
         <v>Eagle IV APC </v>
       </c>
-      <c r="P78" s="21" t="str">
-        <f aca="false">P4</f>
+      <c r="Q80" s="20" t="str">
+        <f aca="false">Q4</f>
         <v>Eagle V APC </v>
       </c>
-      <c r="Q78" s="21" t="str">
-        <f aca="false">Q4</f>
+      <c r="R80" s="20" t="str">
+        <f aca="false">R4</f>
         <v>Enok 6.1 LAPV </v>
       </c>
-      <c r="R78" s="21" t="str">
-        <f aca="false">R4</f>
+      <c r="S80" s="20" t="str">
+        <f aca="false">S4</f>
         <v>Duro 3 Yak </v>
       </c>
-      <c r="S78" s="21" t="str">
-        <f aca="false">S4</f>
+      <c r="T80" s="20" t="str">
+        <f aca="false">T4</f>
         <v>ESK Mungo </v>
       </c>
-      <c r="T78" s="21" t="str">
-        <f aca="false">T4</f>
+      <c r="U80" s="20" t="str">
+        <f aca="false">U4</f>
         <v>LGS Fennek </v>
       </c>
-      <c r="U78" s="21" t="str">
-        <f aca="false">U4</f>
+      <c r="V80" s="20" t="str">
+        <f aca="false">V4</f>
         <v>ATF Dingo 1 </v>
       </c>
-      <c r="V78" s="21" t="str">
-        <f aca="false">V4</f>
+      <c r="W80" s="20" t="str">
+        <f aca="false">W4</f>
         <v>ATF Dingo 2 </v>
       </c>
-      <c r="W78" s="21" t="str">
-        <f aca="false">W4</f>
+      <c r="X80" s="20" t="str">
+        <f aca="false">X4</f>
         <v>M113 </v>
       </c>
-      <c r="X78" s="21" t="str">
-        <f aca="false">X4</f>
+      <c r="Y80" s="20" t="str">
+        <f aca="false">Y4</f>
         <v>TPz Fuchs 1A4/5 </v>
       </c>
-      <c r="Y78" s="21" t="str">
-        <f aca="false">Y4</f>
+      <c r="Z80" s="20" t="str">
+        <f aca="false">Z4</f>
         <v>GTK Boxer </v>
       </c>
-      <c r="Z78" s="21" t="str">
-        <f aca="false">Z4</f>
+      <c r="AA80" s="20" t="str">
+        <f aca="false">AA4</f>
         <v>SPz 1A3 Marder </v>
       </c>
-      <c r="AA78" s="21" t="str">
-        <f aca="false">AA4</f>
+      <c r="AB80" s="20" t="str">
+        <f aca="false">AB4</f>
         <v>SPz Puma </v>
       </c>
-      <c r="AB78" s="21" t="str">
-        <f aca="false">AB4</f>
+      <c r="AC80" s="20" t="str">
+        <f aca="false">AC4</f>
         <v>AGF Serval LIV (SO) </v>
       </c>
-      <c r="AC78" s="21" t="str">
-        <f aca="false">AC4</f>
+      <c r="AD80" s="20" t="str">
+        <f aca="false">AD4</f>
         <v>Wiesel I </v>
       </c>
-      <c r="AD78" s="21" t="str">
-        <f aca="false">AD4</f>
+      <c r="AE80" s="20" t="str">
+        <f aca="false">AE4</f>
         <v>Wiesel I TOW </v>
       </c>
-      <c r="AE78" s="21" t="str">
-        <f aca="false">AE4</f>
+      <c r="AF80" s="20" t="str">
+        <f aca="false">AF4</f>
         <v>Wiesel I A3 MK </v>
       </c>
-      <c r="AF78" s="21" t="str">
-        <f aca="false">AF4</f>
+      <c r="AG80" s="20" t="str">
+        <f aca="false">AG4</f>
         <v>M113 Transport </v>
       </c>
-      <c r="AG78" s="21" t="str">
-        <f aca="false">AG4</f>
+      <c r="AH80" s="20" t="str">
+        <f aca="false">AH4</f>
         <v>TPz Fuchs 1A4/5 Transport </v>
       </c>
-      <c r="AH78" s="21" t="str">
-        <f aca="false">AH4</f>
+      <c r="AI80" s="20" t="str">
+        <f aca="false">AI4</f>
         <v>GTK Boxer Tranport </v>
       </c>
-      <c r="AI78" s="21" t="str">
-        <f aca="false">AI4</f>
+      <c r="AJ80" s="20" t="str">
+        <f aca="false">AJ4</f>
         <v>MAN gl Transport </v>
       </c>
-      <c r="AJ78" s="21" t="str">
-        <f aca="false">AJ4</f>
+      <c r="AK80" s="20" t="str">
+        <f aca="false">AK4</f>
         <v>Unimog Transport </v>
       </c>
-      <c r="AK78" s="21" t="str">
-        <f aca="false">AK4</f>
+      <c r="AL80" s="20" t="str">
+        <f aca="false">AL4</f>
         <v>Wolf G5 Jeep Transport </v>
       </c>
-      <c r="AL78" s="21" t="n">
-        <f aca="false">AL4</f>
-        <v>0</v>
-      </c>
-      <c r="AM78" s="21" t="n">
+      <c r="AM80" s="20" t="n">
         <f aca="false">AM4</f>
         <v>0</v>
       </c>
-      <c r="AN78" s="21" t="n">
+      <c r="AN80" s="20" t="n">
         <f aca="false">AN4</f>
         <v>0</v>
       </c>
-      <c r="AO78" s="21" t="n">
+      <c r="AO80" s="20" t="n">
         <f aca="false">AO4</f>
         <v>0</v>
       </c>
-      <c r="AP78" s="21" t="n">
+      <c r="AP80" s="20" t="n">
         <f aca="false">AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ78" s="21" t="n">
+      <c r="AQ80" s="20" t="n">
         <f aca="false">AQ4</f>
         <v>0</v>
       </c>
-      <c r="AR78" s="21" t="n">
+      <c r="AR80" s="20" t="n">
         <f aca="false">AR4</f>
         <v>0</v>
       </c>
-      <c r="AS78" s="21" t="n">
+      <c r="AS80" s="20" t="n">
         <f aca="false">AS4</f>
         <v>0</v>
       </c>
-      <c r="AT78" s="21" t="n">
+      <c r="AT80" s="20" t="n">
         <f aca="false">AT4</f>
         <v>0</v>
       </c>
-      <c r="AU78" s="21" t="n">
+      <c r="AU80" s="20" t="n">
         <f aca="false">AU4</f>
         <v>0</v>
       </c>
-      <c r="AV78" s="21" t="n">
+      <c r="AV80" s="20" t="n">
         <f aca="false">AV4</f>
         <v>0</v>
       </c>
-      <c r="AW78" s="21" t="n">
+      <c r="AW80" s="20" t="n">
         <f aca="false">AW4</f>
         <v>0</v>
       </c>
-      <c r="AX78" s="21" t="n">
+      <c r="AX80" s="20" t="n">
         <f aca="false">AX4</f>
         <v>0</v>
       </c>
-      <c r="AY78" s="21" t="n">
+      <c r="AY80" s="20" t="n">
         <f aca="false">AY4</f>
         <v>0</v>
       </c>
-      <c r="AZ78" s="21" t="n">
+      <c r="AZ80" s="20" t="n">
         <f aca="false">AZ4</f>
         <v>0</v>
       </c>
-      <c r="BA78" s="21" t="n">
+      <c r="BA80" s="20" t="n">
         <f aca="false">BA4</f>
         <v>0</v>
       </c>
-      <c r="BB78" s="21" t="n">
+      <c r="BB80" s="20" t="n">
         <f aca="false">BB4</f>
         <v>0</v>
       </c>
-      <c r="BC78" s="21" t="n">
+      <c r="BC80" s="20" t="n">
         <f aca="false">BC4</f>
         <v>0</v>
       </c>
-      <c r="BD78" s="21" t="n">
+      <c r="BD80" s="20" t="n">
         <f aca="false">BD4</f>
         <v>0</v>
       </c>
-      <c r="BE78" s="21" t="n">
+      <c r="BE80" s="20" t="n">
         <f aca="false">BE4</f>
         <v>0</v>
       </c>
-      <c r="BF78" s="21" t="n">
+      <c r="BF80" s="20" t="n">
         <f aca="false">BF4</f>
         <v>0</v>
       </c>
-      <c r="BG78" s="21" t="n">
+      <c r="BG80" s="20" t="n">
         <f aca="false">BG4</f>
         <v>0</v>
       </c>
-      <c r="BH78" s="21" t="n">
+      <c r="BH80" s="20" t="n">
         <f aca="false">BH4</f>
         <v>0</v>
       </c>
-      <c r="BI78" s="21" t="n">
+      <c r="BI80" s="20" t="n">
         <f aca="false">BI4</f>
         <v>0</v>
       </c>
-      <c r="BJ78" s="21" t="n">
+      <c r="BJ80" s="20" t="n">
         <f aca="false">BJ4</f>
         <v>0</v>
       </c>
-      <c r="BK78" s="21" t="n">
+      <c r="BK80" s="20" t="n">
         <f aca="false">BK4</f>
         <v>0</v>
       </c>
-      <c r="BL78" s="21" t="n">
+      <c r="BL80" s="20" t="n">
         <f aca="false">BL4</f>
         <v>0</v>
       </c>
-      <c r="BM78" s="21" t="n">
+      <c r="BM80" s="20" t="n">
         <f aca="false">BM4</f>
         <v>0</v>
       </c>
-      <c r="BN78" s="21" t="n">
+      <c r="BN80" s="20" t="n">
         <f aca="false">BN4</f>
         <v>0</v>
       </c>
-      <c r="BO78" s="21" t="n">
+      <c r="BO80" s="20" t="n">
         <f aca="false">BO4</f>
         <v>0</v>
       </c>
-      <c r="BP78" s="21" t="n">
+      <c r="BP80" s="20" t="n">
         <f aca="false">BP4</f>
         <v>0</v>
       </c>
-      <c r="BQ78" s="21" t="n">
+      <c r="BQ80" s="20" t="n">
         <f aca="false">BQ4</f>
         <v>0</v>
       </c>
-      <c r="BR78" s="21" t="n">
+      <c r="BR80" s="20" t="n">
         <f aca="false">BR4</f>
         <v>0</v>
       </c>
-      <c r="BS78" s="21" t="n">
+      <c r="BS80" s="20" t="n">
         <f aca="false">BS4</f>
         <v>0</v>
       </c>
-      <c r="BT78" s="21" t="n">
+      <c r="BT80" s="20" t="n">
         <f aca="false">BT4</f>
         <v>0</v>
       </c>
-      <c r="BU78" s="21" t="n">
+      <c r="BU80" s="20" t="n">
         <f aca="false">BU4</f>
         <v>0</v>
       </c>
-      <c r="BV78" s="21" t="n">
+      <c r="BV80" s="20" t="n">
         <f aca="false">BV4</f>
         <v>0</v>
       </c>
-      <c r="BW78" s="21" t="n">
+      <c r="BW80" s="20" t="n">
         <f aca="false">BW4</f>
         <v>0</v>
       </c>
-      <c r="BX78" s="21" t="n">
+      <c r="BX80" s="20" t="n">
         <f aca="false">BX4</f>
         <v>0</v>
       </c>
-      <c r="BY78" s="21" t="n">
+      <c r="BY80" s="20" t="n">
         <f aca="false">BY4</f>
         <v>0</v>
       </c>
-      <c r="BZ78" s="21" t="n">
+      <c r="BZ80" s="20" t="n">
         <f aca="false">BZ4</f>
         <v>0</v>
       </c>
-      <c r="CA78" s="21" t="n">
+      <c r="CA80" s="20" t="n">
         <f aca="false">CA4</f>
         <v>0</v>
       </c>
-      <c r="CB78" s="21" t="n">
+      <c r="CB80" s="20" t="n">
         <f aca="false">CB4</f>
         <v>0</v>
       </c>
-      <c r="CC78" s="21" t="n">
+      <c r="CC80" s="20" t="n">
         <f aca="false">CC4</f>
         <v>0</v>
       </c>
-      <c r="CD78" s="21" t="n">
+      <c r="CD80" s="20" t="n">
         <f aca="false">CD4</f>
         <v>0</v>
       </c>
-      <c r="CE78" s="21" t="n">
+      <c r="CE80" s="20" t="n">
         <f aca="false">CE4</f>
         <v>0</v>
       </c>
-      <c r="CF78" s="21" t="n">
+      <c r="CF80" s="20" t="n">
         <f aca="false">CF4</f>
         <v>0</v>
       </c>
-      <c r="CG78" s="21" t="n">
+      <c r="CG80" s="20" t="n">
         <f aca="false">CG4</f>
         <v>0</v>
       </c>
+      <c r="CH80" s="20" t="n">
+        <f aca="false">CH4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0"/>
-      <c r="C79" s="16" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C81" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <f aca="false">ROUNDUP(G82*E81,0)</f>
+        <v>230</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <f aca="false">ROUNDUP(H82*$E81,0)</f>
+        <v>117</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <f aca="false">ROUNDUP(I82*$E81,0)</f>
+        <v>117</v>
+      </c>
+      <c r="J81" s="9" t="n">
+        <f aca="false">ROUNDUP(J82*$E81,0)</f>
+        <v>144</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <f aca="false">ROUNDUP(K82*$E81,0)</f>
+        <v>122</v>
+      </c>
+      <c r="L81" s="9" t="n">
+        <f aca="false">ROUNDUP(L82*$E81,0)</f>
+        <v>122</v>
+      </c>
+      <c r="M81" s="9" t="n">
+        <f aca="false">ROUNDUP(M82*$E81,0)</f>
+        <v>59</v>
+      </c>
+      <c r="N81" s="9" t="n">
+        <f aca="false">ROUNDUP(N82*$E81,0)</f>
+        <v>72</v>
+      </c>
+      <c r="O81" s="9" t="n">
+        <f aca="false">ROUNDUP(O82*$E81,0)</f>
+        <v>86</v>
+      </c>
+      <c r="P81" s="9" t="n">
+        <f aca="false">ROUNDUP(P82*$E81,0)</f>
+        <v>49</v>
+      </c>
+      <c r="Q81" s="9" t="n">
+        <f aca="false">ROUNDUP(Q82*$E81,0)</f>
+        <v>49</v>
+      </c>
+      <c r="R81" s="9" t="n">
+        <f aca="false">ROUNDUP(R82*$E81,0)</f>
+        <v>53</v>
+      </c>
+      <c r="S81" s="9" t="n">
+        <f aca="false">ROUNDUP(S82*$E81,0)</f>
+        <v>74</v>
+      </c>
+      <c r="T81" s="9" t="n">
+        <f aca="false">ROUNDUP(T82*$E81,0)</f>
+        <v>55</v>
+      </c>
+      <c r="U81" s="9" t="n">
+        <f aca="false">ROUNDUP(U82*$E81,0)</f>
+        <v>67</v>
+      </c>
+      <c r="V81" s="9" t="n">
+        <f aca="false">ROUNDUP(V82*$E81,0)</f>
+        <v>49</v>
+      </c>
+      <c r="W81" s="9" t="n">
+        <f aca="false">ROUNDUP(W82*$E81,0)</f>
+        <v>54</v>
+      </c>
+      <c r="X81" s="9" t="n">
+        <f aca="false">ROUNDUP(X82*$E81,0)</f>
+        <v>74</v>
+      </c>
+      <c r="Y81" s="9" t="n">
+        <f aca="false">ROUNDUP(Y82*$E81,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Z81" s="9" t="n">
+        <f aca="false">ROUNDUP(Z82*$E81,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AA81" s="9" t="n">
+        <f aca="false">ROUNDUP(AA82*$E81,0)</f>
+        <v>101</v>
+      </c>
+      <c r="AB81" s="9" t="n">
+        <f aca="false">ROUNDUP(AB82*$E81,0)</f>
+        <v>128</v>
+      </c>
+      <c r="AC81" s="9" t="n">
+        <f aca="false">ROUNDUP(AC82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD81" s="9" t="n">
+        <f aca="false">ROUNDUP(AD82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="9" t="n">
+        <f aca="false">ROUNDUP(AE82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="9" t="n">
+        <f aca="false">ROUNDUP(AF82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="9" t="n">
+        <f aca="false">ROUNDUP(AG82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH81" s="9" t="n">
+        <f aca="false">ROUNDUP(AH82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI81" s="9" t="n">
+        <f aca="false">ROUNDUP(AI82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="9" t="n">
+        <f aca="false">ROUNDUP(AJ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK81" s="9" t="n">
+        <f aca="false">ROUNDUP(AK82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL81" s="9" t="n">
+        <f aca="false">ROUNDUP(AL82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM81" s="9" t="n">
+        <f aca="false">ROUNDUP(AM82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN81" s="9" t="n">
+        <f aca="false">ROUNDUP(AN82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO81" s="9" t="n">
+        <f aca="false">ROUNDUP(AO82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP81" s="9" t="n">
+        <f aca="false">ROUNDUP(AP82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="9" t="n">
+        <f aca="false">ROUNDUP(AQ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR81" s="9" t="n">
+        <f aca="false">ROUNDUP(AR82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS81" s="9" t="n">
+        <f aca="false">ROUNDUP(AS82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT81" s="9" t="n">
+        <f aca="false">ROUNDUP(AT82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU81" s="9" t="n">
+        <f aca="false">ROUNDUP(AU82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV81" s="9" t="n">
+        <f aca="false">ROUNDUP(AV82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW81" s="9" t="n">
+        <f aca="false">ROUNDUP(AW82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX81" s="9" t="n">
+        <f aca="false">ROUNDUP(AX82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY81" s="9" t="n">
+        <f aca="false">ROUNDUP(AY82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ81" s="9" t="n">
+        <f aca="false">ROUNDUP(AZ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA81" s="9" t="n">
+        <f aca="false">ROUNDUP(BA82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB81" s="9" t="n">
+        <f aca="false">ROUNDUP(BB82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC81" s="9" t="n">
+        <f aca="false">ROUNDUP(BC82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD81" s="9" t="n">
+        <f aca="false">ROUNDUP(BD82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE81" s="9" t="n">
+        <f aca="false">ROUNDUP(BE82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF81" s="9" t="n">
+        <f aca="false">ROUNDUP(BF82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG81" s="9" t="n">
+        <f aca="false">ROUNDUP(BG82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH81" s="9" t="n">
+        <f aca="false">ROUNDUP(BH82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI81" s="9" t="n">
+        <f aca="false">ROUNDUP(BI82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ81" s="9" t="n">
+        <f aca="false">ROUNDUP(BJ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK81" s="9" t="n">
+        <f aca="false">ROUNDUP(BK82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL81" s="9" t="n">
+        <f aca="false">ROUNDUP(BL82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM81" s="9" t="n">
+        <f aca="false">ROUNDUP(BM82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN81" s="9" t="n">
+        <f aca="false">ROUNDUP(BN82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO81" s="9" t="n">
+        <f aca="false">ROUNDUP(BO82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BP81" s="9" t="n">
+        <f aca="false">ROUNDUP(BP82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ81" s="9" t="n">
+        <f aca="false">ROUNDUP(BQ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BR81" s="9" t="n">
+        <f aca="false">ROUNDUP(BR82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BS81" s="9" t="n">
+        <f aca="false">ROUNDUP(BS82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BT81" s="9" t="n">
+        <f aca="false">ROUNDUP(BT82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BU81" s="9" t="n">
+        <f aca="false">ROUNDUP(BU82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV81" s="9" t="n">
+        <f aca="false">ROUNDUP(BV82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BW81" s="9" t="n">
+        <f aca="false">ROUNDUP(BW82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BX81" s="9" t="n">
+        <f aca="false">ROUNDUP(BX82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BY81" s="9" t="n">
+        <f aca="false">ROUNDUP(BY82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ81" s="9" t="n">
+        <f aca="false">ROUNDUP(BZ82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CA81" s="9" t="n">
+        <f aca="false">ROUNDUP(CA82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CB81" s="9" t="n">
+        <f aca="false">ROUNDUP(CB82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC81" s="9" t="n">
+        <f aca="false">ROUNDUP(CC82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CD81" s="9" t="n">
+        <f aca="false">ROUNDUP(CD82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CE81" s="9" t="n">
+        <f aca="false">ROUNDUP(CE82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF81" s="9" t="n">
+        <f aca="false">ROUNDUP(CF82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG81" s="9" t="n">
+        <f aca="false">ROUNDUP(CG82*$E81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CH81" s="9" t="n">
+        <f aca="false">ROUNDUP(CH82*$E81,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="16"/>
+      <c r="D82" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(G6:G80, E6:E80)</f>
+        <v>255</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(H6:H80, $E6:$E80)</f>
+        <v>130</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(I6:I80, $E6:$E80)</f>
+        <v>130</v>
+      </c>
+      <c r="J82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(J6:J80, $E6:$E80)</f>
+        <v>160</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(K6:K80, $E6:$E80)</f>
+        <v>135</v>
+      </c>
+      <c r="L82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(L6:L80, $E6:$E80)</f>
+        <v>135</v>
+      </c>
+      <c r="M82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(M6:M80, $E6:$E80)</f>
+        <v>65</v>
+      </c>
+      <c r="N82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(N6:N80, $E6:$E80)</f>
+        <v>80</v>
+      </c>
+      <c r="O82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(O6:O80, $E6:$E80)</f>
+        <v>95</v>
+      </c>
+      <c r="P82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(P6:P80, $E6:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="Q82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(Q6:Q80, $E6:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="R82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(R6:R80, $E6:$E80)</f>
+        <v>58</v>
+      </c>
+      <c r="S82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(S6:S80, $E6:$E80)</f>
+        <v>82</v>
+      </c>
+      <c r="T82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(T6:T80, $E6:$E80)</f>
+        <v>61</v>
+      </c>
+      <c r="U82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(U6:U80, $E6:$E80)</f>
+        <v>74</v>
+      </c>
+      <c r="V82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(V6:V80, $E6:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="W82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(W6:W80, $E6:$E80)</f>
+        <v>60</v>
+      </c>
+      <c r="X82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(X6:X80, $E6:$E80)</f>
+        <v>82</v>
+      </c>
+      <c r="Y82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(Y6:Y80, $E6:$E80)</f>
+        <v>76</v>
+      </c>
+      <c r="Z82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(Z6:Z80, $E6:$E80)</f>
+        <v>74</v>
+      </c>
+      <c r="AA82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AA6:AA80, $E6:$E80)</f>
+        <v>112</v>
+      </c>
+      <c r="AB82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AB6:AB80, $E6:$E80)</f>
+        <v>142</v>
+      </c>
+      <c r="AC82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AC6:AC80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AD82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AD6:AD80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AE6:AE80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AF6:AF80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AG6:AG80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AH6:AH80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AI6:AI80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AJ6:AJ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AK82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AK6:AK80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AL82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AL6:AL80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AM82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AM6:AM80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AN82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AN6:AN80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AO82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AO6:AO80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AP82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AP6:AP80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AQ6:AQ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AR82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AR6:AR80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AS82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AS6:AS80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AT82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AT6:AT80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AU82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AU6:AU80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AV82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AV6:AV80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AW82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AW6:AW80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AX82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AX6:AX80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AY82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AY6:AY80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(AZ6:AZ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BA82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BA6:BA80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BB82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BB6:BB80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BC82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BC6:BC80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BD82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BD6:BD80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BE82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BE6:BE80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BF82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BF6:BF80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BG82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BG6:BG80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BH82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BH6:BH80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BI82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BI6:BI80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BJ6:BJ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BK82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BK6:BK80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BL82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BL6:BL80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BM82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BM6:BM80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BN82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BN6:BN80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BO82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BO6:BO80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BP82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BP6:BP80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BQ6:BQ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BR82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BR6:BR80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BS82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BS6:BS80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BT82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BT6:BT80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BU82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BU6:BU80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BV82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BV6:BV80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BW82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BW6:BW80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BX82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BX6:BX80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BY82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BY6:BY80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(BZ6:BZ80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CA82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CA6:CA80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CB82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CB6:CB80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CC82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CC6:CC80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CD82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CD6:CD80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CE82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CE6:CE80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CF82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CF6:CF80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CG82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CG6:CG80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CH82" s="9" t="n">
+        <f aca="false">SUMPRODUCT(CH6:CH80, $E6:$E80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="16"/>
+      <c r="D83" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <f aca="false">ROUNDUP(G82*E83,0)</f>
+        <v>281</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <f aca="false">ROUNDUP(H82*$E83,0)</f>
+        <v>143</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <f aca="false">ROUNDUP(I82*$E83,0)</f>
+        <v>143</v>
+      </c>
+      <c r="J83" s="9" t="n">
+        <f aca="false">ROUNDUP(J82*$E83,0)</f>
+        <v>176</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <f aca="false">ROUNDUP(K82*$E83,0)</f>
+        <v>149</v>
+      </c>
+      <c r="L83" s="9" t="n">
+        <f aca="false">ROUNDUP(L82*$E83,0)</f>
+        <v>149</v>
+      </c>
+      <c r="M83" s="9" t="n">
+        <f aca="false">ROUNDUP(M82*$E83,0)</f>
+        <v>72</v>
+      </c>
+      <c r="N83" s="9" t="n">
+        <f aca="false">ROUNDUP(N82*$E83,0)</f>
+        <v>88</v>
+      </c>
+      <c r="O83" s="9" t="n">
+        <f aca="false">ROUNDUP(O82*$E83,0)</f>
+        <v>105</v>
+      </c>
+      <c r="P83" s="9" t="n">
+        <f aca="false">ROUNDUP(P82*$E83,0)</f>
+        <v>60</v>
+      </c>
+      <c r="Q83" s="9" t="n">
+        <f aca="false">ROUNDUP(Q82*$E83,0)</f>
+        <v>60</v>
+      </c>
+      <c r="R83" s="9" t="n">
+        <f aca="false">ROUNDUP(R82*$E83,0)</f>
+        <v>64</v>
+      </c>
+      <c r="S83" s="9" t="n">
+        <f aca="false">ROUNDUP(S82*$E83,0)</f>
+        <v>91</v>
+      </c>
+      <c r="T83" s="9" t="n">
+        <f aca="false">ROUNDUP(T82*$E83,0)</f>
+        <v>68</v>
+      </c>
+      <c r="U83" s="9" t="n">
+        <f aca="false">ROUNDUP(U82*$E83,0)</f>
+        <v>82</v>
+      </c>
+      <c r="V83" s="9" t="n">
+        <f aca="false">ROUNDUP(V82*$E83,0)</f>
+        <v>60</v>
+      </c>
+      <c r="W83" s="9" t="n">
+        <f aca="false">ROUNDUP(W82*$E83,0)</f>
+        <v>66</v>
+      </c>
+      <c r="X83" s="9" t="n">
+        <f aca="false">ROUNDUP(X82*$E83,0)</f>
+        <v>91</v>
+      </c>
+      <c r="Y83" s="9" t="n">
+        <f aca="false">ROUNDUP(Y82*$E83,0)</f>
+        <v>84</v>
+      </c>
+      <c r="Z83" s="9" t="n">
+        <f aca="false">ROUNDUP(Z82*$E83,0)</f>
+        <v>82</v>
+      </c>
+      <c r="AA83" s="9" t="n">
+        <f aca="false">ROUNDUP(AA82*$E83,0)</f>
         <v>124</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G79" s="9" t="n">
-        <f aca="false">ROUNDUP(G80*E79,0)</f>
-        <v>230</v>
-      </c>
-      <c r="H79" s="9" t="n">
-        <f aca="false">ROUNDUP(H80*$E79,0)</f>
-        <v>117</v>
-      </c>
-      <c r="I79" s="9" t="n">
-        <f aca="false">ROUNDUP(I80*$E79,0)</f>
-        <v>117</v>
-      </c>
-      <c r="J79" s="9" t="n">
-        <f aca="false">ROUNDUP(J80*$E79,0)</f>
-        <v>144</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <f aca="false">ROUNDUP(K80*$E79,0)</f>
-        <v>113</v>
-      </c>
-      <c r="L79" s="9" t="n">
-        <f aca="false">ROUNDUP(L80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="9" t="n">
-        <f aca="false">ROUNDUP(M80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="9" t="n">
-        <f aca="false">ROUNDUP(N80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="9" t="n">
-        <f aca="false">ROUNDUP(O80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="9" t="n">
-        <f aca="false">ROUNDUP(P80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="9" t="n">
-        <f aca="false">ROUNDUP(Q80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R79" s="9" t="n">
-        <f aca="false">ROUNDUP(R80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S79" s="9" t="n">
-        <f aca="false">ROUNDUP(S80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T79" s="9" t="n">
-        <f aca="false">ROUNDUP(T80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="9" t="n">
-        <f aca="false">ROUNDUP(U80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V79" s="9" t="n">
-        <f aca="false">ROUNDUP(V80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W79" s="9" t="n">
-        <f aca="false">ROUNDUP(W80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X79" s="9" t="n">
-        <f aca="false">ROUNDUP(X80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="9" t="n">
-        <f aca="false">ROUNDUP(Y80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="9" t="n">
-        <f aca="false">ROUNDUP(Z80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="9" t="n">
-        <f aca="false">ROUNDUP(AA80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="9" t="n">
-        <f aca="false">ROUNDUP(AB80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC79" s="9" t="n">
-        <f aca="false">ROUNDUP(AC80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="9" t="n">
-        <f aca="false">ROUNDUP(AD80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE79" s="9" t="n">
-        <f aca="false">ROUNDUP(AE80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF79" s="9" t="n">
-        <f aca="false">ROUNDUP(AF80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG79" s="9" t="n">
-        <f aca="false">ROUNDUP(AG80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH79" s="9" t="n">
-        <f aca="false">ROUNDUP(AH80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI79" s="9" t="n">
-        <f aca="false">ROUNDUP(AI80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="9" t="n">
-        <f aca="false">ROUNDUP(AJ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK79" s="9" t="n">
-        <f aca="false">ROUNDUP(AK80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL79" s="9" t="n">
-        <f aca="false">ROUNDUP(AL80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM79" s="9" t="n">
-        <f aca="false">ROUNDUP(AM80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN79" s="9" t="n">
-        <f aca="false">ROUNDUP(AN80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO79" s="9" t="n">
-        <f aca="false">ROUNDUP(AO80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP79" s="9" t="n">
-        <f aca="false">ROUNDUP(AP80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ79" s="9" t="n">
-        <f aca="false">ROUNDUP(AQ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR79" s="9" t="n">
-        <f aca="false">ROUNDUP(AR80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AS79" s="9" t="n">
-        <f aca="false">ROUNDUP(AS80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT79" s="9" t="n">
-        <f aca="false">ROUNDUP(AT80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AU79" s="9" t="n">
-        <f aca="false">ROUNDUP(AU80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AV79" s="9" t="n">
-        <f aca="false">ROUNDUP(AV80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AW79" s="9" t="n">
-        <f aca="false">ROUNDUP(AW80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AX79" s="9" t="n">
-        <f aca="false">ROUNDUP(AX80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY79" s="9" t="n">
-        <f aca="false">ROUNDUP(AY80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ79" s="9" t="n">
-        <f aca="false">ROUNDUP(AZ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA79" s="9" t="n">
-        <f aca="false">ROUNDUP(BA80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB79" s="9" t="n">
-        <f aca="false">ROUNDUP(BB80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC79" s="9" t="n">
-        <f aca="false">ROUNDUP(BC80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD79" s="9" t="n">
-        <f aca="false">ROUNDUP(BD80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE79" s="9" t="n">
-        <f aca="false">ROUNDUP(BE80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF79" s="9" t="n">
-        <f aca="false">ROUNDUP(BF80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG79" s="9" t="n">
-        <f aca="false">ROUNDUP(BG80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH79" s="9" t="n">
-        <f aca="false">ROUNDUP(BH80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BI79" s="9" t="n">
-        <f aca="false">ROUNDUP(BI80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ79" s="9" t="n">
-        <f aca="false">ROUNDUP(BJ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK79" s="9" t="n">
-        <f aca="false">ROUNDUP(BK80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL79" s="9" t="n">
-        <f aca="false">ROUNDUP(BL80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BM79" s="9" t="n">
-        <f aca="false">ROUNDUP(BM80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BN79" s="9" t="n">
-        <f aca="false">ROUNDUP(BN80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BO79" s="9" t="n">
-        <f aca="false">ROUNDUP(BO80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BP79" s="9" t="n">
-        <f aca="false">ROUNDUP(BP80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ79" s="9" t="n">
-        <f aca="false">ROUNDUP(BQ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR79" s="9" t="n">
-        <f aca="false">ROUNDUP(BR80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS79" s="9" t="n">
-        <f aca="false">ROUNDUP(BS80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT79" s="9" t="n">
-        <f aca="false">ROUNDUP(BT80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BU79" s="9" t="n">
-        <f aca="false">ROUNDUP(BU80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV79" s="9" t="n">
-        <f aca="false">ROUNDUP(BV80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BW79" s="9" t="n">
-        <f aca="false">ROUNDUP(BW80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX79" s="9" t="n">
-        <f aca="false">ROUNDUP(BX80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BY79" s="9" t="n">
-        <f aca="false">ROUNDUP(BY80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ79" s="9" t="n">
-        <f aca="false">ROUNDUP(BZ80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CA79" s="9" t="n">
-        <f aca="false">ROUNDUP(CA80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CB79" s="9" t="n">
-        <f aca="false">ROUNDUP(CB80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CC79" s="9" t="n">
-        <f aca="false">ROUNDUP(CC80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD79" s="9" t="n">
-        <f aca="false">ROUNDUP(CD80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CE79" s="9" t="n">
-        <f aca="false">ROUNDUP(CE80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CF79" s="9" t="n">
-        <f aca="false">ROUNDUP(CF80*$E79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG79" s="9" t="n">
-        <f aca="false">ROUNDUP(CG80*$E79,0)</f>
+      <c r="AB83" s="9" t="n">
+        <f aca="false">ROUNDUP(AB82*$E83,0)</f>
+        <v>157</v>
+      </c>
+      <c r="AC83" s="9" t="n">
+        <f aca="false">ROUNDUP(AC82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD83" s="9" t="n">
+        <f aca="false">ROUNDUP(AD82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="9" t="n">
+        <f aca="false">ROUNDUP(AE82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="9" t="n">
+        <f aca="false">ROUNDUP(AF82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="9" t="n">
+        <f aca="false">ROUNDUP(AG82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="9" t="n">
+        <f aca="false">ROUNDUP(AH82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="9" t="n">
+        <f aca="false">ROUNDUP(AI82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="9" t="n">
+        <f aca="false">ROUNDUP(AJ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK83" s="9" t="n">
+        <f aca="false">ROUNDUP(AK82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL83" s="9" t="n">
+        <f aca="false">ROUNDUP(AL82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM83" s="9" t="n">
+        <f aca="false">ROUNDUP(AM82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN83" s="9" t="n">
+        <f aca="false">ROUNDUP(AN82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO83" s="9" t="n">
+        <f aca="false">ROUNDUP(AO82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP83" s="9" t="n">
+        <f aca="false">ROUNDUP(AP82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="9" t="n">
+        <f aca="false">ROUNDUP(AQ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR83" s="9" t="n">
+        <f aca="false">ROUNDUP(AR82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS83" s="9" t="n">
+        <f aca="false">ROUNDUP(AS82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT83" s="9" t="n">
+        <f aca="false">ROUNDUP(AT82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU83" s="9" t="n">
+        <f aca="false">ROUNDUP(AU82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV83" s="9" t="n">
+        <f aca="false">ROUNDUP(AV82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW83" s="9" t="n">
+        <f aca="false">ROUNDUP(AW82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX83" s="9" t="n">
+        <f aca="false">ROUNDUP(AX82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY83" s="9" t="n">
+        <f aca="false">ROUNDUP(AY82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ83" s="9" t="n">
+        <f aca="false">ROUNDUP(AZ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA83" s="9" t="n">
+        <f aca="false">ROUNDUP(BA82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB83" s="9" t="n">
+        <f aca="false">ROUNDUP(BB82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC83" s="9" t="n">
+        <f aca="false">ROUNDUP(BC82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD83" s="9" t="n">
+        <f aca="false">ROUNDUP(BD82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE83" s="9" t="n">
+        <f aca="false">ROUNDUP(BE82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF83" s="9" t="n">
+        <f aca="false">ROUNDUP(BF82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG83" s="9" t="n">
+        <f aca="false">ROUNDUP(BG82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH83" s="9" t="n">
+        <f aca="false">ROUNDUP(BH82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI83" s="9" t="n">
+        <f aca="false">ROUNDUP(BI82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ83" s="9" t="n">
+        <f aca="false">ROUNDUP(BJ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK83" s="9" t="n">
+        <f aca="false">ROUNDUP(BK82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL83" s="9" t="n">
+        <f aca="false">ROUNDUP(BL82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM83" s="9" t="n">
+        <f aca="false">ROUNDUP(BM82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN83" s="9" t="n">
+        <f aca="false">ROUNDUP(BN82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO83" s="9" t="n">
+        <f aca="false">ROUNDUP(BO82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BP83" s="9" t="n">
+        <f aca="false">ROUNDUP(BP82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ83" s="9" t="n">
+        <f aca="false">ROUNDUP(BQ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BR83" s="9" t="n">
+        <f aca="false">ROUNDUP(BR82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BS83" s="9" t="n">
+        <f aca="false">ROUNDUP(BS82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BT83" s="9" t="n">
+        <f aca="false">ROUNDUP(BT82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BU83" s="9" t="n">
+        <f aca="false">ROUNDUP(BU82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV83" s="9" t="n">
+        <f aca="false">ROUNDUP(BV82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BW83" s="9" t="n">
+        <f aca="false">ROUNDUP(BW82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BX83" s="9" t="n">
+        <f aca="false">ROUNDUP(BX82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BY83" s="9" t="n">
+        <f aca="false">ROUNDUP(BY82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ83" s="9" t="n">
+        <f aca="false">ROUNDUP(BZ82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CA83" s="9" t="n">
+        <f aca="false">ROUNDUP(CA82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CB83" s="9" t="n">
+        <f aca="false">ROUNDUP(CB82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC83" s="9" t="n">
+        <f aca="false">ROUNDUP(CC82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CD83" s="9" t="n">
+        <f aca="false">ROUNDUP(CD82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CE83" s="9" t="n">
+        <f aca="false">ROUNDUP(CE82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF83" s="9" t="n">
+        <f aca="false">ROUNDUP(CF82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG83" s="9" t="n">
+        <f aca="false">ROUNDUP(CG82*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CH83" s="9" t="n">
+        <f aca="false">ROUNDUP(CH82*$E83,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(G6:G78, E6:E78)</f>
-        <v>255</v>
-      </c>
-      <c r="H80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(H6:H78, $E6:$E78)</f>
-        <v>130</v>
-      </c>
-      <c r="I80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(I6:I78, $E6:$E78)</f>
-        <v>130</v>
-      </c>
-      <c r="J80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(J6:J78, $E6:$E78)</f>
-        <v>160</v>
-      </c>
-      <c r="K80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(K6:K78, $E6:$E78)</f>
-        <v>125</v>
-      </c>
-      <c r="L80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(L6:L78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(M6:M78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="N80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(N6:N78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(O6:O78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="P80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(P6:P78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(Q6:Q78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(R6:R78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="S80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(S6:S78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="T80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(T6:T78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(U6:U78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="V80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(V6:V78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="W80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(W6:W78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="X80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(X6:X78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(Y6:Y78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(Z6:Z78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AA6:AA78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AB6:AB78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AC80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AC6:AC78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AD6:AD78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AE80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AE6:AE78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AF80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AF6:AF78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AG80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AG6:AG78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AH80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AH6:AH78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AI80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AI6:AI78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AJ6:AJ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AK80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AK6:AK78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AL80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AL6:AL78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AM80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AM6:AM78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AN80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AN6:AN78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AO80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AO6:AO78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AP80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AP6:AP78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AQ6:AQ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AR80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AR6:AR78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AS80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AS6:AS78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AT80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AT6:AT78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AU80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AU6:AU78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AV80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AV6:AV78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AW80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AW6:AW78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AX80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AX6:AX78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AY80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AY6:AY78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(AZ6:AZ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BA80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BA6:BA78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BB80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BB6:BB78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BC80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BC6:BC78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BD80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BD6:BD78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BE80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BE6:BE78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BF80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BF6:BF78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BG80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BG6:BG78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BH80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BH6:BH78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BI80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BI6:BI78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BJ6:BJ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BK80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BK6:BK78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BL80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BL6:BL78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BM80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BM6:BM78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BN80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BN6:BN78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BO80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BO6:BO78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BP80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BP6:BP78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BQ6:BQ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BR80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BR6:BR78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BS80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BS6:BS78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BT80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BT6:BT78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BU80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BU6:BU78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BV80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BV6:BV78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BW80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BW6:BW78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BX80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BX6:BX78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BY80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BY6:BY78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(BZ6:BZ78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CA80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CA6:CA78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CB80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CB6:CB78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CC80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CC6:CC78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CD80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CD6:CD78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CE80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CE6:CE78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CF80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CF6:CF78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-      <c r="CG80" s="9" t="n">
-        <f aca="false">SUMPRODUCT(CG6:CG78, $E6:$E78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E81" s="9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G81" s="9" t="n">
-        <f aca="false">ROUNDUP(G80*E81,0)</f>
-        <v>281</v>
-      </c>
-      <c r="H81" s="9" t="n">
-        <f aca="false">ROUNDUP(H80*$E81,0)</f>
-        <v>143</v>
-      </c>
-      <c r="I81" s="9" t="n">
-        <f aca="false">ROUNDUP(I80*$E81,0)</f>
-        <v>143</v>
-      </c>
-      <c r="J81" s="9" t="n">
-        <f aca="false">ROUNDUP(J80*$E81,0)</f>
-        <v>176</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <f aca="false">ROUNDUP(K80*$E81,0)</f>
-        <v>138</v>
-      </c>
-      <c r="L81" s="9" t="n">
-        <f aca="false">ROUNDUP(L80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="9" t="n">
-        <f aca="false">ROUNDUP(M80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N81" s="9" t="n">
-        <f aca="false">ROUNDUP(N80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O81" s="9" t="n">
-        <f aca="false">ROUNDUP(O80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P81" s="9" t="n">
-        <f aca="false">ROUNDUP(P80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="9" t="n">
-        <f aca="false">ROUNDUP(Q80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R81" s="9" t="n">
-        <f aca="false">ROUNDUP(R80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S81" s="9" t="n">
-        <f aca="false">ROUNDUP(S80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T81" s="9" t="n">
-        <f aca="false">ROUNDUP(T80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="9" t="n">
-        <f aca="false">ROUNDUP(U80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V81" s="9" t="n">
-        <f aca="false">ROUNDUP(V80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W81" s="9" t="n">
-        <f aca="false">ROUNDUP(W80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X81" s="9" t="n">
-        <f aca="false">ROUNDUP(X80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="9" t="n">
-        <f aca="false">ROUNDUP(Y80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="9" t="n">
-        <f aca="false">ROUNDUP(Z80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="9" t="n">
-        <f aca="false">ROUNDUP(AA80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB81" s="9" t="n">
-        <f aca="false">ROUNDUP(AB80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC81" s="9" t="n">
-        <f aca="false">ROUNDUP(AC80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="9" t="n">
-        <f aca="false">ROUNDUP(AD80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE81" s="9" t="n">
-        <f aca="false">ROUNDUP(AE80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF81" s="9" t="n">
-        <f aca="false">ROUNDUP(AF80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG81" s="9" t="n">
-        <f aca="false">ROUNDUP(AG80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH81" s="9" t="n">
-        <f aca="false">ROUNDUP(AH80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI81" s="9" t="n">
-        <f aca="false">ROUNDUP(AI80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="9" t="n">
-        <f aca="false">ROUNDUP(AJ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK81" s="9" t="n">
-        <f aca="false">ROUNDUP(AK80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL81" s="9" t="n">
-        <f aca="false">ROUNDUP(AL80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM81" s="9" t="n">
-        <f aca="false">ROUNDUP(AM80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN81" s="9" t="n">
-        <f aca="false">ROUNDUP(AN80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO81" s="9" t="n">
-        <f aca="false">ROUNDUP(AO80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP81" s="9" t="n">
-        <f aca="false">ROUNDUP(AP80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ81" s="9" t="n">
-        <f aca="false">ROUNDUP(AQ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR81" s="9" t="n">
-        <f aca="false">ROUNDUP(AR80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AS81" s="9" t="n">
-        <f aca="false">ROUNDUP(AS80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT81" s="9" t="n">
-        <f aca="false">ROUNDUP(AT80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AU81" s="9" t="n">
-        <f aca="false">ROUNDUP(AU80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AV81" s="9" t="n">
-        <f aca="false">ROUNDUP(AV80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AW81" s="9" t="n">
-        <f aca="false">ROUNDUP(AW80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AX81" s="9" t="n">
-        <f aca="false">ROUNDUP(AX80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY81" s="9" t="n">
-        <f aca="false">ROUNDUP(AY80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ81" s="9" t="n">
-        <f aca="false">ROUNDUP(AZ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA81" s="9" t="n">
-        <f aca="false">ROUNDUP(BA80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB81" s="9" t="n">
-        <f aca="false">ROUNDUP(BB80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC81" s="9" t="n">
-        <f aca="false">ROUNDUP(BC80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD81" s="9" t="n">
-        <f aca="false">ROUNDUP(BD80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE81" s="9" t="n">
-        <f aca="false">ROUNDUP(BE80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF81" s="9" t="n">
-        <f aca="false">ROUNDUP(BF80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG81" s="9" t="n">
-        <f aca="false">ROUNDUP(BG80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH81" s="9" t="n">
-        <f aca="false">ROUNDUP(BH80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BI81" s="9" t="n">
-        <f aca="false">ROUNDUP(BI80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ81" s="9" t="n">
-        <f aca="false">ROUNDUP(BJ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK81" s="9" t="n">
-        <f aca="false">ROUNDUP(BK80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL81" s="9" t="n">
-        <f aca="false">ROUNDUP(BL80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BM81" s="9" t="n">
-        <f aca="false">ROUNDUP(BM80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BN81" s="9" t="n">
-        <f aca="false">ROUNDUP(BN80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BO81" s="9" t="n">
-        <f aca="false">ROUNDUP(BO80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BP81" s="9" t="n">
-        <f aca="false">ROUNDUP(BP80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ81" s="9" t="n">
-        <f aca="false">ROUNDUP(BQ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR81" s="9" t="n">
-        <f aca="false">ROUNDUP(BR80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS81" s="9" t="n">
-        <f aca="false">ROUNDUP(BS80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT81" s="9" t="n">
-        <f aca="false">ROUNDUP(BT80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BU81" s="9" t="n">
-        <f aca="false">ROUNDUP(BU80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV81" s="9" t="n">
-        <f aca="false">ROUNDUP(BV80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BW81" s="9" t="n">
-        <f aca="false">ROUNDUP(BW80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX81" s="9" t="n">
-        <f aca="false">ROUNDUP(BX80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BY81" s="9" t="n">
-        <f aca="false">ROUNDUP(BY80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ81" s="9" t="n">
-        <f aca="false">ROUNDUP(BZ80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CA81" s="9" t="n">
-        <f aca="false">ROUNDUP(CA80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CB81" s="9" t="n">
-        <f aca="false">ROUNDUP(CB80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CC81" s="9" t="n">
-        <f aca="false">ROUNDUP(CC80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD81" s="9" t="n">
-        <f aca="false">ROUNDUP(CD80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CE81" s="9" t="n">
-        <f aca="false">ROUNDUP(CE80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CF81" s="9" t="n">
-        <f aca="false">ROUNDUP(CF80*$E81,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG81" s="9" t="n">
-        <f aca="false">ROUNDUP(CG80*$E81,0)</f>
-        <v>0</v>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M87" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10627,11 +11020,11 @@
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C23:C57"/>
+    <mergeCell ref="C23:C58"/>
     <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C62:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C81:C83"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/calculators/vehicle-calculator.xlsx
+++ b/calculators/vehicle-calculator.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -37,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0">
+    <comment ref="C78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C82" authorId="0">
+    <comment ref="C83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="0">
+    <comment ref="D76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N76" authorId="0">
+    <comment ref="N77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O76" authorId="0">
+    <comment ref="O77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,17 +103,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t xml:space="preserve">H.E.A.T. Vehicle Cost Calculator Sheet v1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bundeswehr</t>
+    <t xml:space="preserve">NATO Reaction Forces (aka Germany)</t>
   </si>
   <si>
     <t xml:space="preserve">Estonian Land Forces</t>
   </si>
   <si>
+    <t xml:space="preserve">Baltic Security Partnership Brigade</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
@@ -276,6 +279,24 @@
     <t xml:space="preserve">Boat</t>
   </si>
   <si>
+    <t xml:space="preserve">HMMWV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisu Parsi 4x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVR(T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-8T Hip C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaris RZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M113 self propelled mortar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armour</t>
   </si>
   <si>
@@ -484,6 +505,9 @@
   </si>
   <si>
     <t xml:space="preserve">Medical Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artillery Observer</t>
   </si>
   <si>
     <t xml:space="preserve">Transport</t>
@@ -565,8 +589,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -608,7 +633,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +650,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -718,97 +749,101 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -864,7 +899,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -994,357 +1029,389 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:DF88"/>
+  <dimension ref="C2:DF89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C30" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="AD30" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
-      <selection pane="topRight" activeCell="AD83" activeCellId="0" sqref="AD83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="AW30" activeCellId="0" sqref="AW30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="16.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="22.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="1" width="19.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="25.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="23.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="34.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="5.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="35.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="16.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="1" width="5.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="57" style="1" width="2.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="1" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="25.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="23.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="32.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="33.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="20.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="0" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="63" style="0" width="2.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="5" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="9"/>
@@ -1394,12 +1461,12 @@
       <c r="DE4" s="11"/>
       <c r="DF4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>15</v>
@@ -1444,9 +1511,10 @@
       <c r="AK5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AL5" s="0"/>
       <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
+      <c r="AN5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AO5" s="11"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
@@ -1518,10 +1586,10 @@
       <c r="DE5" s="11"/>
       <c r="DF5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>50</v>
@@ -1604,13 +1672,22 @@
       <c r="AI6" s="11"/>
       <c r="AJ6" s="11"/>
       <c r="AK6" s="11"/>
-      <c r="AL6" s="0"/>
-      <c r="AM6" s="11"/>
+      <c r="AM6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
+      <c r="AO6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -1623,9 +1700,15 @@
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
       <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
+      <c r="BE6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BH6" s="11"/>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="11"/>
@@ -1678,10 +1761,10 @@
       <c r="DE6" s="11"/>
       <c r="DF6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="12"/>
       <c r="D7" s="15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>70</v>
@@ -1724,14 +1807,15 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
-      <c r="AL7" s="0"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
+      <c r="AS7" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
@@ -1798,10 +1882,10 @@
       <c r="DE7" s="11"/>
       <c r="DF7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="12"/>
       <c r="D8" s="15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>110</v>
@@ -1840,7 +1924,6 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
-      <c r="AL8" s="0"/>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
@@ -1848,7 +1931,9 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
+      <c r="AT8" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
@@ -1914,10 +1999,10 @@
       <c r="DE8" s="11"/>
       <c r="DF8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="12"/>
       <c r="D9" s="15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>190</v>
@@ -1954,7 +2039,6 @@
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
-      <c r="AL9" s="0"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
@@ -2028,10 +2112,10 @@
       <c r="DE9" s="11"/>
       <c r="DF9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="12"/>
       <c r="D10" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>350</v>
@@ -2068,10 +2152,8 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
-      <c r="AL10" s="0"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="0"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
@@ -2142,12 +2224,12 @@
       <c r="DE10" s="11"/>
       <c r="DF10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>5</v>
@@ -2183,19 +2265,6 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="0"/>
-      <c r="AL11" s="0"/>
-      <c r="AM11" s="0"/>
-      <c r="AN11" s="0"/>
-      <c r="AO11" s="0"/>
-      <c r="AP11" s="0"/>
-      <c r="AQ11" s="0"/>
-      <c r="AR11" s="0"/>
-      <c r="AS11" s="0"/>
-      <c r="AT11" s="0"/>
-      <c r="AU11" s="0"/>
-      <c r="AV11" s="0"/>
-      <c r="AW11" s="0"/>
       <c r="AX11" s="11"/>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
@@ -2258,10 +2327,10 @@
       <c r="DE11" s="11"/>
       <c r="DF11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="12"/>
       <c r="D12" s="15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>10</v>
@@ -2298,7 +2367,6 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="0"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
@@ -2372,10 +2440,10 @@
       <c r="DE12" s="11"/>
       <c r="DF12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="12"/>
       <c r="D13" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>20</v>
@@ -2412,7 +2480,6 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
-      <c r="AL13" s="0"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
@@ -2486,10 +2553,10 @@
       <c r="DE13" s="11"/>
       <c r="DF13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="12"/>
       <c r="D14" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>40</v>
@@ -2526,7 +2593,6 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
-      <c r="AL14" s="0"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
@@ -2600,10 +2666,10 @@
       <c r="DE14" s="11"/>
       <c r="DF14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="12"/>
       <c r="D15" s="15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>80</v>
@@ -2640,7 +2706,6 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
-      <c r="AL15" s="0"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
@@ -2714,10 +2779,10 @@
       <c r="DE15" s="11"/>
       <c r="DF15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="12"/>
       <c r="D16" s="15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>120</v>
@@ -2754,7 +2819,6 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
-      <c r="AL16" s="0"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
@@ -2828,10 +2892,10 @@
       <c r="DE16" s="11"/>
       <c r="DF16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="12"/>
       <c r="D17" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>-10</v>
@@ -2868,7 +2932,6 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
-      <c r="AL17" s="0"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
@@ -2942,12 +3005,12 @@
       <c r="DE17" s="11"/>
       <c r="DF17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>25</v>
@@ -2984,7 +3047,9 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
-      <c r="AL18" s="0"/>
+      <c r="AL18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -3058,10 +3123,10 @@
       <c r="DE18" s="11"/>
       <c r="DF18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="12"/>
       <c r="D19" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>40</v>
@@ -3099,11 +3164,6 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="0"/>
-      <c r="AL19" s="0"/>
-      <c r="AM19" s="0"/>
-      <c r="AN19" s="0"/>
-      <c r="AO19" s="0"/>
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
@@ -3174,10 +3234,10 @@
       <c r="DE19" s="11"/>
       <c r="DF19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="12"/>
       <c r="D20" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>55</v>
@@ -3214,7 +3274,6 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
-      <c r="AL20" s="0"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
@@ -3223,7 +3282,9 @@
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
+      <c r="AU20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AV20" s="11"/>
       <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
@@ -3237,7 +3298,9 @@
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
       <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
+      <c r="BI20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
@@ -3288,10 +3351,10 @@
       <c r="DE20" s="11"/>
       <c r="DF20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="12"/>
       <c r="D21" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>60</v>
@@ -3328,7 +3391,6 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
-      <c r="AL21" s="0"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
@@ -3402,12 +3464,12 @@
       <c r="DE21" s="11"/>
       <c r="DF21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>2</v>
@@ -3484,16 +3546,31 @@
       <c r="AK22" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AL22" s="0"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
+      <c r="AM22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO22" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP22" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ22" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR22" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS22" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
+      <c r="AU22" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="AV22" s="11"/>
       <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
@@ -3503,11 +3580,17 @@
       <c r="BB22" s="11"/>
       <c r="BC22" s="11"/>
       <c r="BD22" s="11"/>
-      <c r="BE22" s="11"/>
-      <c r="BF22" s="11"/>
+      <c r="BE22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF22" s="11" t="n">
+        <v>16</v>
+      </c>
       <c r="BG22" s="11"/>
       <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
+      <c r="BI22" s="11" t="n">
+        <v>24</v>
+      </c>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
@@ -3558,12 +3641,12 @@
       <c r="DE22" s="11"/>
       <c r="DF22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E23" s="11" t="n">
         <v>5</v>
@@ -3674,10 +3757,10 @@
       <c r="DE23" s="11"/>
       <c r="DF23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="18"/>
       <c r="D24" s="15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E24" s="11" t="n">
         <v>10</v>
@@ -3728,11 +3811,19 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
+      <c r="AP24" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
+      <c r="AR24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU24" s="11"/>
       <c r="AV24" s="11"/>
       <c r="AW24" s="11"/>
@@ -3798,10 +3889,10 @@
       <c r="DE24" s="11"/>
       <c r="DF24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="18"/>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>20</v>
@@ -3912,16 +4003,16 @@
       <c r="DE25" s="11"/>
       <c r="DF25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="18"/>
       <c r="D26" s="15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>20</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -4028,10 +4119,10 @@
       <c r="DE26" s="11"/>
       <c r="DF26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18"/>
       <c r="D27" s="15" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>20</v>
@@ -4142,16 +4233,16 @@
       <c r="DE27" s="11"/>
       <c r="DF27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="18"/>
       <c r="D28" s="15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E28" s="11" t="n">
         <v>30</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -4190,7 +4281,9 @@
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
+      <c r="AP28" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
@@ -4260,16 +4353,16 @@
       <c r="DE28" s="11"/>
       <c r="DF28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="18"/>
       <c r="D29" s="15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E29" s="11" t="n">
         <v>40</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -4317,7 +4410,9 @@
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
+      <c r="AU29" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AV29" s="11"/>
       <c r="AW29" s="11"/>
       <c r="AX29" s="11"/>
@@ -4382,16 +4477,16 @@
       <c r="DE29" s="11"/>
       <c r="DF29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="18"/>
       <c r="D30" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>50</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -4498,16 +4593,16 @@
       <c r="DE30" s="11"/>
       <c r="DF30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="18"/>
       <c r="D31" s="15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>50</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -4546,7 +4641,9 @@
       <c r="AO31" s="11"/>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
+      <c r="AR31" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS31" s="11"/>
       <c r="AT31" s="11"/>
       <c r="AU31" s="11"/>
@@ -4614,16 +4711,16 @@
       <c r="DE31" s="11"/>
       <c r="DF31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="18"/>
       <c r="D32" s="15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>70</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -4663,7 +4760,9 @@
       <c r="AP32" s="11"/>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
-      <c r="AS32" s="11"/>
+      <c r="AS32" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT32" s="11"/>
       <c r="AU32" s="11"/>
       <c r="AV32" s="11"/>
@@ -4730,16 +4829,16 @@
       <c r="DE32" s="11"/>
       <c r="DF32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="18"/>
       <c r="D33" s="15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>110</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G33" s="11" t="n">
         <v>1</v>
@@ -4782,7 +4881,9 @@
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
       <c r="AS33" s="11"/>
-      <c r="AT33" s="11"/>
+      <c r="AT33" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU33" s="11"/>
       <c r="AV33" s="11"/>
       <c r="AW33" s="11"/>
@@ -4848,16 +4949,16 @@
       <c r="DE33" s="11"/>
       <c r="DF33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="18"/>
       <c r="D34" s="15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E34" s="11" t="n">
         <v>190</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -4964,10 +5065,10 @@
       <c r="DE34" s="11"/>
       <c r="DF34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="18"/>
       <c r="D35" s="15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E35" s="11" t="n">
         <v>50</v>
@@ -5078,10 +5179,10 @@
       <c r="DE35" s="11"/>
       <c r="DF35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="18"/>
       <c r="D36" s="15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>60</v>
@@ -5194,10 +5295,10 @@
       <c r="DE36" s="11"/>
       <c r="DF36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="18"/>
       <c r="D37" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>100</v>
@@ -5308,10 +5409,10 @@
       <c r="DE37" s="11"/>
       <c r="DF37" s="11"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="18"/>
       <c r="D38" s="15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>50</v>
@@ -5422,10 +5523,10 @@
       <c r="DE38" s="11"/>
       <c r="DF38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="18"/>
       <c r="D39" s="15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>55</v>
@@ -5536,10 +5637,10 @@
       <c r="DE39" s="11"/>
       <c r="DF39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="18"/>
       <c r="D40" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>75</v>
@@ -5654,10 +5755,10 @@
       <c r="DE40" s="11"/>
       <c r="DF40" s="11"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="18"/>
       <c r="D41" s="15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>70</v>
@@ -5768,10 +5869,10 @@
       <c r="DE41" s="11"/>
       <c r="DF41" s="11"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="18"/>
       <c r="D42" s="15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E42" s="11" t="n">
         <v>30</v>
@@ -5882,10 +5983,10 @@
       <c r="DE42" s="11"/>
       <c r="DF42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="18"/>
       <c r="D43" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E43" s="11" t="n">
         <v>50</v>
@@ -5998,10 +6099,10 @@
       <c r="DE43" s="11"/>
       <c r="DF43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="18"/>
       <c r="D44" s="15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E44" s="11" t="n">
         <v>30</v>
@@ -6044,7 +6145,9 @@
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
       <c r="AQ44" s="11"/>
-      <c r="AR44" s="11"/>
+      <c r="AR44" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS44" s="11"/>
       <c r="AT44" s="11"/>
       <c r="AU44" s="11"/>
@@ -6112,10 +6215,10 @@
       <c r="DE44" s="11"/>
       <c r="DF44" s="11"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="18"/>
       <c r="D45" s="15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E45" s="11" t="n">
         <v>45</v>
@@ -6226,10 +6329,10 @@
       <c r="DE45" s="11"/>
       <c r="DF45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="18"/>
       <c r="D46" s="15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E46" s="11" t="n">
         <v>70</v>
@@ -6342,10 +6445,10 @@
       <c r="DE46" s="11"/>
       <c r="DF46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="18"/>
       <c r="D47" s="15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E47" s="11" t="n">
         <v>50</v>
@@ -6456,10 +6559,10 @@
       <c r="DE47" s="11"/>
       <c r="DF47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="18"/>
       <c r="D48" s="15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E48" s="11" t="n">
         <v>70</v>
@@ -6570,10 +6673,10 @@
       <c r="DE48" s="11"/>
       <c r="DF48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="18"/>
       <c r="D49" s="15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E49" s="11" t="n">
         <v>110</v>
@@ -6684,10 +6787,10 @@
       <c r="DE49" s="11"/>
       <c r="DF49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="18"/>
       <c r="D50" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E50" s="11" t="n">
         <v>40</v>
@@ -6798,10 +6901,10 @@
       <c r="DE50" s="11"/>
       <c r="DF50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="18"/>
       <c r="D51" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E51" s="11" t="n">
         <v>65</v>
@@ -6912,10 +7015,10 @@
       <c r="DE51" s="11"/>
       <c r="DF51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="18"/>
       <c r="D52" s="15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E52" s="11" t="n">
         <v>90</v>
@@ -7026,10 +7129,10 @@
       <c r="DE52" s="11"/>
       <c r="DF52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="18"/>
       <c r="D53" s="15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E53" s="11" t="n">
         <v>60</v>
@@ -7140,10 +7243,10 @@
       <c r="DE53" s="11"/>
       <c r="DF53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="18"/>
       <c r="D54" s="15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E54" s="11" t="n">
         <v>80</v>
@@ -7254,10 +7357,10 @@
       <c r="DE54" s="11"/>
       <c r="DF54" s="11"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="18"/>
       <c r="D55" s="15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E55" s="11" t="n">
         <v>100</v>
@@ -7368,10 +7471,10 @@
       <c r="DE55" s="11"/>
       <c r="DF55" s="11"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="18"/>
       <c r="D56" s="15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E56" s="11" t="n">
         <v>100</v>
@@ -7482,10 +7585,10 @@
       <c r="DE56" s="11"/>
       <c r="DF56" s="11"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="18"/>
       <c r="D57" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E57" s="11" t="n">
         <v>80</v>
@@ -7596,10 +7699,10 @@
       <c r="DE57" s="11"/>
       <c r="DF57" s="11"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="18"/>
       <c r="D58" s="15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E58" s="11" t="n">
         <v>10</v>
@@ -7669,12 +7772,24 @@
       <c r="AL58" s="11"/>
       <c r="AM58" s="11"/>
       <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
+      <c r="AO58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU58" s="11"/>
       <c r="AV58" s="11"/>
       <c r="AW58" s="11"/>
@@ -7686,8 +7801,12 @@
       <c r="BC58" s="11"/>
       <c r="BD58" s="11"/>
       <c r="BE58" s="11"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="11"/>
+      <c r="BF58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG58" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BH58" s="11"/>
       <c r="BI58" s="11"/>
       <c r="BJ58" s="11"/>
@@ -7740,12 +7859,12 @@
       <c r="DE58" s="11"/>
       <c r="DF58" s="11"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C59" s="18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E59" s="11" t="n">
         <v>10</v>
@@ -7856,10 +7975,10 @@
       <c r="DE59" s="11"/>
       <c r="DF59" s="11"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="18"/>
       <c r="D60" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E60" s="11" t="n">
         <v>15</v>
@@ -7970,13 +8089,13 @@
       <c r="DE60" s="11"/>
       <c r="DF60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="18"/>
       <c r="D61" s="15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="11"/>
@@ -8004,25 +8123,15 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
-      <c r="AF61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AM61" s="11"/>
       <c r="AN61" s="11"/>
       <c r="AO61" s="11"/>
@@ -8096,34 +8205,24 @@
       <c r="DE61" s="11"/>
       <c r="DF61" s="11"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C62" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>129</v>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="18"/>
+      <c r="D62" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="E62" s="11" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="11"/>
-      <c r="O62" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
@@ -8140,12 +8239,24 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
+      <c r="AF62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
@@ -8220,13 +8331,15 @@
       <c r="DE62" s="11"/>
       <c r="DF62" s="11"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="18"/>
-      <c r="D63" s="15" t="s">
-        <v>130</v>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C63" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E63" s="11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="11"/>
@@ -8239,16 +8352,18 @@
       <c r="L63" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="M63" s="11"/>
+      <c r="M63" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
+      <c r="O63" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
-      <c r="T63" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
@@ -8257,9 +8372,7 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
-      <c r="AC63" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
@@ -8274,7 +8387,9 @@
       <c r="AO63" s="11"/>
       <c r="AP63" s="11"/>
       <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
+      <c r="AR63" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS63" s="11"/>
       <c r="AT63" s="11"/>
       <c r="AU63" s="11"/>
@@ -8342,21 +8457,25 @@
       <c r="DE63" s="11"/>
       <c r="DF63" s="11"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="18"/>
       <c r="D64" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="K64" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
@@ -8364,7 +8483,9 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
+      <c r="T64" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
@@ -8373,7 +8494,9 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
+      <c r="AC64" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
@@ -8456,13 +8579,13 @@
       <c r="DE64" s="11"/>
       <c r="DF64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="18"/>
       <c r="D65" s="15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="11"/>
@@ -8517,7 +8640,9 @@
       <c r="BD65" s="11"/>
       <c r="BE65" s="11"/>
       <c r="BF65" s="11"/>
-      <c r="BG65" s="11"/>
+      <c r="BG65" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BH65" s="11"/>
       <c r="BI65" s="11"/>
       <c r="BJ65" s="11"/>
@@ -8570,13 +8695,13 @@
       <c r="DE65" s="11"/>
       <c r="DF65" s="11"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="18"/>
       <c r="D66" s="15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="11"/>
@@ -8585,21 +8710,15 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
@@ -8690,13 +8809,13 @@
       <c r="DE66" s="11"/>
       <c r="DF66" s="11"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="18"/>
       <c r="D67" s="15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E67" s="11" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="11"/>
@@ -8705,15 +8824,21 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
+      <c r="M67" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
+      <c r="U67" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
@@ -8804,13 +8929,13 @@
       <c r="DE67" s="11"/>
       <c r="DF67" s="11"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="18"/>
       <c r="D68" s="15" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="11"/>
@@ -8918,13 +9043,13 @@
       <c r="DE68" s="11"/>
       <c r="DF68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="18"/>
       <c r="D69" s="15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="11"/>
@@ -9032,13 +9157,13 @@
       <c r="DE69" s="11"/>
       <c r="DF69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="18"/>
       <c r="D70" s="15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E70" s="11" t="n">
-        <v>15</v>
+        <v>-20</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="11"/>
@@ -9146,13 +9271,13 @@
       <c r="DE70" s="11"/>
       <c r="DF70" s="11"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="18"/>
       <c r="D71" s="15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E71" s="11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="11"/>
@@ -9260,13 +9385,13 @@
       <c r="DE71" s="11"/>
       <c r="DF71" s="11"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="18"/>
       <c r="D72" s="15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E72" s="11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="11"/>
@@ -9374,13 +9499,13 @@
       <c r="DE72" s="11"/>
       <c r="DF72" s="11"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="18"/>
       <c r="D73" s="15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E73" s="11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="11"/>
@@ -9403,12 +9528,8 @@
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
-      <c r="AA73" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
@@ -9425,9 +9546,13 @@
       <c r="AP73" s="11"/>
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
-      <c r="AS73" s="11"/>
+      <c r="AS73" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT73" s="11"/>
-      <c r="AU73" s="11"/>
+      <c r="AU73" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AV73" s="11"/>
       <c r="AW73" s="11"/>
       <c r="AX73" s="11"/>
@@ -9492,18 +9617,16 @@
       <c r="DE73" s="11"/>
       <c r="DF73" s="11"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="18"/>
       <c r="D74" s="15" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E74" s="11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F74" s="14"/>
-      <c r="G74" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
@@ -9530,9 +9653,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="11"/>
-      <c r="AD74" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD74" s="11"/>
       <c r="AE74" s="11"/>
       <c r="AF74" s="11"/>
       <c r="AG74" s="11"/>
@@ -9547,9 +9668,15 @@
       <c r="AP74" s="11"/>
       <c r="AQ74" s="11"/>
       <c r="AR74" s="11"/>
-      <c r="AS74" s="11"/>
-      <c r="AT74" s="11"/>
-      <c r="AU74" s="11"/>
+      <c r="AS74" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU74" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AV74" s="11"/>
       <c r="AW74" s="11"/>
       <c r="AX74" s="11"/>
@@ -9614,16 +9741,18 @@
       <c r="DE74" s="11"/>
       <c r="DF74" s="11"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="18"/>
       <c r="D75" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E75" s="11" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F75" s="14"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -9636,21 +9765,23 @@
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
-      <c r="T75" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T75" s="11"/>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="11"/>
+      <c r="AA75" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AE75" s="11"/>
       <c r="AF75" s="11"/>
       <c r="AG75" s="11"/>
@@ -9662,11 +9793,17 @@
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="11"/>
-      <c r="AP75" s="11"/>
+      <c r="AP75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ75" s="11"/>
-      <c r="AR75" s="11"/>
+      <c r="AR75" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="AS75" s="11"/>
-      <c r="AT75" s="11"/>
+      <c r="AT75" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU75" s="11"/>
       <c r="AV75" s="11"/>
       <c r="AW75" s="11"/>
@@ -9732,10 +9869,10 @@
       <c r="DE75" s="11"/>
       <c r="DF75" s="11"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="18"/>
       <c r="D76" s="15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E76" s="11" t="n">
         <v>5</v>
@@ -9748,17 +9885,15 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="N76" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O76" s="11" t="n">
-        <v>4</v>
-      </c>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
+      <c r="T76" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
@@ -9767,7 +9902,9 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
       <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
+      <c r="AC76" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -9850,29 +9987,27 @@
       <c r="DE76" s="11"/>
       <c r="DF76" s="11"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C77" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>145</v>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="18"/>
+      <c r="D77" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
+      <c r="N77" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="O77" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -9886,9 +10021,7 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
-      <c r="AB77" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB77" s="11"/>
       <c r="AC77" s="11"/>
       <c r="AD77" s="11"/>
       <c r="AE77" s="11"/>
@@ -9972,24 +10105,20 @@
       <c r="DE77" s="11"/>
       <c r="DF77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="18"/>
-      <c r="D78" s="15" t="s">
-        <v>146</v>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C78" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="E78" s="11" t="n">
         <v>10</v>
       </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="11" t="n">
         <v>1</v>
       </c>
@@ -9997,7 +10126,9 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
+      <c r="O78" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
@@ -10013,9 +10144,7 @@
       <c r="AB78" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AC78" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
       <c r="AE78" s="11"/>
       <c r="AF78" s="11"/>
@@ -10030,7 +10159,9 @@
       <c r="AO78" s="11"/>
       <c r="AP78" s="11"/>
       <c r="AQ78" s="11"/>
-      <c r="AR78" s="11"/>
+      <c r="AR78" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AS78" s="11"/>
       <c r="AT78" s="11"/>
       <c r="AU78" s="11"/>
@@ -10098,10 +10229,10 @@
       <c r="DE78" s="11"/>
       <c r="DF78" s="11"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="18"/>
-      <c r="D79" s="16" t="s">
-        <v>147</v>
+      <c r="D79" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="E79" s="11" t="n">
         <v>10</v>
@@ -10110,8 +10241,12 @@
       <c r="G79" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="H79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="J79" s="11" t="n">
         <v>1</v>
       </c>
@@ -10120,1328 +10255,1467 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="11"/>
+      <c r="AO79" s="11"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" s="11"/>
+      <c r="AS79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU79" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV79" s="11"/>
+      <c r="AW79" s="11"/>
+      <c r="AX79" s="11"/>
+      <c r="AY79" s="11"/>
+      <c r="AZ79" s="11"/>
+      <c r="BA79" s="11"/>
+      <c r="BB79" s="11"/>
+      <c r="BC79" s="11"/>
+      <c r="BD79" s="11"/>
+      <c r="BE79" s="11"/>
+      <c r="BF79" s="11"/>
+      <c r="BG79" s="11"/>
+      <c r="BH79" s="11"/>
+      <c r="BI79" s="11"/>
+      <c r="BJ79" s="11"/>
+      <c r="BK79" s="11"/>
+      <c r="BL79" s="11"/>
+      <c r="BM79" s="11"/>
+      <c r="BN79" s="11"/>
+      <c r="BO79" s="11"/>
+      <c r="BP79" s="11"/>
+      <c r="BQ79" s="11"/>
+      <c r="BR79" s="11"/>
+      <c r="BS79" s="11"/>
+      <c r="BT79" s="11"/>
+      <c r="BU79" s="11"/>
+      <c r="BV79" s="11"/>
+      <c r="BW79" s="11"/>
+      <c r="BX79" s="11"/>
+      <c r="BY79" s="11"/>
+      <c r="BZ79" s="11"/>
+      <c r="CA79" s="11"/>
+      <c r="CB79" s="11"/>
+      <c r="CC79" s="11"/>
+      <c r="CD79" s="11"/>
+      <c r="CE79" s="11"/>
+      <c r="CF79" s="11"/>
+      <c r="CG79" s="11"/>
+      <c r="CH79" s="11"/>
+      <c r="CI79" s="11"/>
+      <c r="CJ79" s="11"/>
+      <c r="CK79" s="11"/>
+      <c r="CL79" s="11"/>
+      <c r="CM79" s="11"/>
+      <c r="CN79" s="11"/>
+      <c r="CO79" s="11"/>
+      <c r="CP79" s="11"/>
+      <c r="CQ79" s="11"/>
+      <c r="CR79" s="11"/>
+      <c r="CS79" s="11"/>
+      <c r="CT79" s="11"/>
+      <c r="CU79" s="11"/>
+      <c r="CV79" s="11"/>
+      <c r="CW79" s="11"/>
+      <c r="CX79" s="11"/>
+      <c r="CY79" s="11"/>
+      <c r="CZ79" s="11"/>
+      <c r="DA79" s="11"/>
+      <c r="DB79" s="11"/>
+      <c r="DC79" s="11"/>
+      <c r="DD79" s="11"/>
+      <c r="DE79" s="11"/>
+      <c r="DF79" s="11"/>
     </row>
-    <row r="80" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E80" s="11"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="18"/>
+      <c r="D80" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="F80" s="14"/>
+      <c r="G80" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="AT80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="22" t="str">
+    <row r="81" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E81" s="11"/>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="22" t="str">
         <f aca="false">G4</f>
         <v>Leopard 2A6</v>
       </c>
-      <c r="H81" s="22" t="str">
+      <c r="H82" s="22" t="str">
         <f aca="false">H4</f>
         <v>PzH 2000</v>
       </c>
-      <c r="I81" s="22" t="str">
+      <c r="I82" s="22" t="str">
         <f aca="false">I4</f>
         <v>MARS II</v>
       </c>
-      <c r="J81" s="22" t="str">
+      <c r="J82" s="22" t="str">
         <f aca="false">J4</f>
         <v>Eurocopter</v>
       </c>
-      <c r="K81" s="22" t="str">
+      <c r="K82" s="22" t="str">
         <f aca="false">K4</f>
         <v>M113 mortar</v>
       </c>
-      <c r="L81" s="22" t="str">
+      <c r="L82" s="22" t="str">
         <f aca="false">L4</f>
         <v>Wiesel I Mörser 120mm </v>
       </c>
-      <c r="M81" s="22" t="str">
+      <c r="M82" s="22" t="str">
         <f aca="false">M4</f>
         <v>M113 Feuerleitpanzer </v>
       </c>
-      <c r="N81" s="22" t="str">
+      <c r="N82" s="22" t="str">
         <f aca="false">N4</f>
         <v>Joint Fire Support Team Fennek 1A4 </v>
       </c>
-      <c r="O81" s="22" t="str">
+      <c r="O82" s="22" t="str">
         <f aca="false">O4</f>
         <v>Störpanzer Hummel </v>
       </c>
-      <c r="P81" s="22" t="str">
+      <c r="P82" s="22" t="str">
         <f aca="false">P4</f>
         <v>Eagle IV APC </v>
       </c>
-      <c r="Q81" s="22" t="str">
+      <c r="Q82" s="22" t="str">
         <f aca="false">Q4</f>
         <v>Eagle V APC </v>
       </c>
-      <c r="R81" s="22" t="str">
+      <c r="R82" s="22" t="str">
         <f aca="false">R4</f>
         <v>Enok 6.1 LAPV </v>
       </c>
-      <c r="S81" s="22" t="str">
+      <c r="S82" s="22" t="str">
         <f aca="false">S4</f>
         <v>Duro 3 Yak </v>
       </c>
-      <c r="T81" s="22" t="str">
+      <c r="T82" s="22" t="str">
         <f aca="false">T4</f>
         <v>ESK Mungo </v>
       </c>
-      <c r="U81" s="22" t="str">
+      <c r="U82" s="22" t="str">
         <f aca="false">U4</f>
         <v>LGS Fennek </v>
       </c>
-      <c r="V81" s="22" t="str">
+      <c r="V82" s="22" t="str">
         <f aca="false">V4</f>
         <v>ATF Dingo 1 </v>
       </c>
-      <c r="W81" s="22" t="str">
+      <c r="W82" s="22" t="str">
         <f aca="false">W4</f>
         <v>ATF Dingo 2 </v>
       </c>
-      <c r="X81" s="22" t="str">
+      <c r="X82" s="22" t="str">
         <f aca="false">X4</f>
         <v>M113 </v>
       </c>
-      <c r="Y81" s="22" t="str">
+      <c r="Y82" s="22" t="str">
         <f aca="false">Y4</f>
         <v>TPz Fuchs 1A4/5 </v>
       </c>
-      <c r="Z81" s="22" t="str">
+      <c r="Z82" s="22" t="str">
         <f aca="false">Z4</f>
         <v>GTK Boxer </v>
       </c>
-      <c r="AA81" s="22" t="str">
+      <c r="AA82" s="22" t="str">
         <f aca="false">AA4</f>
         <v>SPz 1A3 Marder </v>
       </c>
-      <c r="AB81" s="22" t="str">
+      <c r="AB82" s="22" t="str">
         <f aca="false">AB4</f>
         <v>SPz Puma </v>
       </c>
-      <c r="AC81" s="22" t="str">
+      <c r="AC82" s="22" t="str">
         <f aca="false">AC4</f>
         <v>AGF Serval LIV (SO) </v>
       </c>
-      <c r="AD81" s="22" t="str">
+      <c r="AD82" s="22" t="str">
         <f aca="false">AD4</f>
         <v>Wiesel I TOW </v>
       </c>
-      <c r="AE81" s="22" t="str">
+      <c r="AE82" s="22" t="str">
         <f aca="false">AE4</f>
         <v>Wiesel I A3 MK </v>
       </c>
-      <c r="AF81" s="22" t="str">
+      <c r="AF82" s="22" t="str">
         <f aca="false">AF4</f>
         <v>M113 Transport </v>
       </c>
-      <c r="AG81" s="22" t="str">
+      <c r="AG82" s="22" t="str">
         <f aca="false">AG4</f>
         <v>TPz Fuchs 1A4/5 Transport </v>
       </c>
-      <c r="AH81" s="22" t="str">
+      <c r="AH82" s="22" t="str">
         <f aca="false">AH4</f>
         <v>GTK Boxer Tranport </v>
       </c>
-      <c r="AI81" s="22" t="str">
+      <c r="AI82" s="22" t="str">
         <f aca="false">AI4</f>
         <v>MAN gl Transport </v>
       </c>
-      <c r="AJ81" s="22" t="str">
+      <c r="AJ82" s="22" t="str">
         <f aca="false">AJ4</f>
         <v>Unimog Transport </v>
       </c>
-      <c r="AK81" s="22" t="str">
+      <c r="AK82" s="22" t="str">
         <f aca="false">AK4</f>
         <v>Wolf G5 Jeep Transport </v>
       </c>
-      <c r="AL81" s="22" t="str">
+      <c r="AL82" s="22" t="str">
         <f aca="false">AL4</f>
         <v>Robinson R44 Observer</v>
       </c>
-      <c r="AM81" s="22" t="str">
+      <c r="AM82" s="22" t="str">
         <f aca="false">AM4</f>
         <v>Mamba Mk2 EE</v>
       </c>
-      <c r="AN81" s="22" t="str">
+      <c r="AN82" s="22" t="str">
         <f aca="false">AN4</f>
         <v>Volvo Tbg "Terrain Vehicle 11"</v>
       </c>
-      <c r="AO81" s="22" t="str">
+      <c r="AO82" s="22" t="str">
         <f aca="false">AO4</f>
         <v>M113</v>
       </c>
-      <c r="AP81" s="22" t="str">
+      <c r="AP82" s="22" t="str">
         <f aca="false">AP4</f>
         <v>BTR-80 UNsh</v>
       </c>
-      <c r="AQ81" s="22" t="str">
+      <c r="AQ82" s="22" t="str">
         <f aca="false">AQ4</f>
         <v>Patria Parsi XA-180EST &amp; XA-188</v>
       </c>
-      <c r="AR81" s="22" t="str">
+      <c r="AR82" s="22" t="str">
         <f aca="false">AR4</f>
         <v>BWP-1</v>
       </c>
-      <c r="AS81" s="22" t="str">
+      <c r="AS82" s="22" t="str">
         <f aca="false">AS4</f>
         <v>CV9035EE</v>
       </c>
-      <c r="AT81" s="22" t="str">
+      <c r="AT82" s="22" t="str">
         <f aca="false">AT4</f>
         <v>T-72M</v>
       </c>
-      <c r="AU81" s="22" t="str">
+      <c r="AU82" s="22" t="str">
         <f aca="false">AU4</f>
         <v>W-3W/WA Sokół</v>
       </c>
-      <c r="AV81" s="22" t="str">
+      <c r="AV82" s="22" t="str">
         <f aca="false">AV4</f>
         <v>Mil Mi-2 "Hoplite"</v>
       </c>
-      <c r="AW81" s="22" t="str">
+      <c r="AW82" s="22" t="str">
         <f aca="false">AW4</f>
         <v>Mil Mi-8 "Hip"</v>
       </c>
-      <c r="AX81" s="22" t="str">
+      <c r="AX82" s="22" t="str">
         <f aca="false">AX4</f>
         <v>Robinson R44</v>
       </c>
-      <c r="AY81" s="22" t="str">
+      <c r="AY82" s="22" t="str">
         <f aca="false">AY4</f>
         <v>Sisu Parsi</v>
       </c>
-      <c r="AZ81" s="22" t="str">
+      <c r="AZ82" s="22" t="str">
         <f aca="false">AZ4</f>
         <v>Truck</v>
       </c>
-      <c r="BA81" s="22" t="str">
+      <c r="BA82" s="22" t="str">
         <f aca="false">BA4</f>
         <v>Toyota/Range Rover</v>
       </c>
-      <c r="BB81" s="22" t="str">
+      <c r="BB82" s="22" t="str">
         <f aca="false">BB4</f>
         <v>Unimog 435</v>
       </c>
-      <c r="BC81" s="22" t="str">
+      <c r="BC82" s="22" t="str">
         <f aca="false">BC4</f>
         <v>Jeep</v>
       </c>
-      <c r="BD81" s="22" t="str">
+      <c r="BD82" s="22" t="str">
         <f aca="false">BD4</f>
         <v>Boat</v>
       </c>
-      <c r="BE81" s="22" t="n">
+      <c r="BE82" s="22" t="str">
         <f aca="false">BE4</f>
-        <v>0</v>
-      </c>
-      <c r="BF81" s="22" t="n">
+        <v>HMMWV</v>
+      </c>
+      <c r="BF82" s="22" t="str">
         <f aca="false">BF4</f>
-        <v>0</v>
-      </c>
-      <c r="BG81" s="22" t="n">
+        <v>Sisu Parsi 4x4</v>
+      </c>
+      <c r="BG82" s="22" t="str">
         <f aca="false">BG4</f>
-        <v>0</v>
-      </c>
-      <c r="BH81" s="22" t="n">
+        <v>CVR(T)</v>
+      </c>
+      <c r="BH82" s="22" t="str">
         <f aca="false">BH4</f>
-        <v>0</v>
-      </c>
-      <c r="BI81" s="22" t="n">
+        <v>M-8T Hip C</v>
+      </c>
+      <c r="BI82" s="22" t="str">
         <f aca="false">BI4</f>
-        <v>0</v>
-      </c>
-      <c r="BJ81" s="22" t="n">
+        <v>Polaris RZR</v>
+      </c>
+      <c r="BJ82" s="22" t="str">
         <f aca="false">BJ4</f>
-        <v>0</v>
-      </c>
-      <c r="BK81" s="22" t="n">
+        <v>M113 self propelled mortar</v>
+      </c>
+      <c r="BK82" s="22" t="n">
         <f aca="false">BK4</f>
         <v>0</v>
       </c>
-      <c r="BL81" s="22" t="n">
+      <c r="BL82" s="22" t="n">
         <f aca="false">BL4</f>
         <v>0</v>
       </c>
-      <c r="BM81" s="22" t="n">
+      <c r="BM82" s="22" t="n">
         <f aca="false">BM4</f>
         <v>0</v>
       </c>
-      <c r="BN81" s="22" t="n">
+      <c r="BN82" s="22" t="n">
         <f aca="false">BN4</f>
         <v>0</v>
       </c>
-      <c r="BO81" s="22" t="n">
+      <c r="BO82" s="22" t="n">
         <f aca="false">BO4</f>
         <v>0</v>
       </c>
-      <c r="BP81" s="22" t="n">
+      <c r="BP82" s="22" t="n">
         <f aca="false">BP4</f>
         <v>0</v>
       </c>
-      <c r="BQ81" s="22" t="n">
+      <c r="BQ82" s="22" t="n">
         <f aca="false">BQ4</f>
         <v>0</v>
       </c>
-      <c r="BR81" s="22" t="n">
+      <c r="BR82" s="22" t="n">
         <f aca="false">BR4</f>
         <v>0</v>
       </c>
-      <c r="BS81" s="22" t="n">
+      <c r="BS82" s="22" t="n">
         <f aca="false">BS4</f>
         <v>0</v>
       </c>
-      <c r="BT81" s="22" t="n">
+      <c r="BT82" s="22" t="n">
         <f aca="false">BT4</f>
         <v>0</v>
       </c>
-      <c r="BU81" s="22" t="n">
+      <c r="BU82" s="22" t="n">
         <f aca="false">BU4</f>
         <v>0</v>
       </c>
-      <c r="BV81" s="22" t="n">
+      <c r="BV82" s="22" t="n">
         <f aca="false">BV4</f>
         <v>0</v>
       </c>
-      <c r="BW81" s="22" t="n">
+      <c r="BW82" s="22" t="n">
         <f aca="false">BW4</f>
         <v>0</v>
       </c>
-      <c r="BX81" s="22" t="n">
+      <c r="BX82" s="22" t="n">
         <f aca="false">BX4</f>
         <v>0</v>
       </c>
-      <c r="BY81" s="22" t="n">
+      <c r="BY82" s="22" t="n">
         <f aca="false">BY4</f>
         <v>0</v>
       </c>
-      <c r="BZ81" s="22" t="n">
+      <c r="BZ82" s="22" t="n">
         <f aca="false">BZ4</f>
         <v>0</v>
       </c>
-      <c r="CA81" s="22" t="n">
+      <c r="CA82" s="22" t="n">
         <f aca="false">CA4</f>
         <v>0</v>
       </c>
-      <c r="CB81" s="22" t="n">
+      <c r="CB82" s="22" t="n">
         <f aca="false">CB4</f>
         <v>0</v>
       </c>
-      <c r="CC81" s="22" t="n">
+      <c r="CC82" s="22" t="n">
         <f aca="false">CC4</f>
         <v>0</v>
       </c>
-      <c r="CD81" s="22" t="n">
+      <c r="CD82" s="22" t="n">
         <f aca="false">CD4</f>
         <v>0</v>
       </c>
-      <c r="CE81" s="22" t="n">
+      <c r="CE82" s="22" t="n">
         <f aca="false">CE4</f>
         <v>0</v>
       </c>
-      <c r="CF81" s="22" t="n">
+      <c r="CF82" s="22" t="n">
         <f aca="false">CF4</f>
         <v>0</v>
       </c>
-      <c r="CG81" s="22" t="n">
+      <c r="CG82" s="22" t="n">
         <f aca="false">CG4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C82" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="13" t="s">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C83" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G83" s="11" t="n">
+        <f aca="false">ROUNDUP(G84*E83,0)</f>
+        <v>230</v>
+      </c>
+      <c r="H83" s="11" t="n">
+        <f aca="false">ROUNDUP(H84*$E83,0)</f>
+        <v>117</v>
+      </c>
+      <c r="I83" s="11" t="n">
+        <f aca="false">ROUNDUP(I84*$E83,0)</f>
+        <v>117</v>
+      </c>
+      <c r="J83" s="11" t="n">
+        <f aca="false">ROUNDUP(J84*$E83,0)</f>
+        <v>144</v>
+      </c>
+      <c r="K83" s="11" t="n">
+        <f aca="false">ROUNDUP(K84*$E83,0)</f>
+        <v>122</v>
+      </c>
+      <c r="L83" s="11" t="n">
+        <f aca="false">ROUNDUP(L84*$E83,0)</f>
+        <v>122</v>
+      </c>
+      <c r="M83" s="11" t="n">
+        <f aca="false">ROUNDUP(M84*$E83,0)</f>
+        <v>59</v>
+      </c>
+      <c r="N83" s="11" t="n">
+        <f aca="false">ROUNDUP(N84*$E83,0)</f>
+        <v>72</v>
+      </c>
+      <c r="O83" s="11" t="n">
+        <f aca="false">ROUNDUP(O84*$E83,0)</f>
+        <v>86</v>
+      </c>
+      <c r="P83" s="11" t="n">
+        <f aca="false">ROUNDUP(P84*$E83,0)</f>
+        <v>49</v>
+      </c>
+      <c r="Q83" s="11" t="n">
+        <f aca="false">ROUNDUP(Q84*$E83,0)</f>
+        <v>49</v>
+      </c>
+      <c r="R83" s="11" t="n">
+        <f aca="false">ROUNDUP(R84*$E83,0)</f>
+        <v>53</v>
+      </c>
+      <c r="S83" s="11" t="n">
+        <f aca="false">ROUNDUP(S84*$E83,0)</f>
+        <v>74</v>
+      </c>
+      <c r="T83" s="11" t="n">
+        <f aca="false">ROUNDUP(T84*$E83,0)</f>
+        <v>60</v>
+      </c>
+      <c r="U83" s="11" t="n">
+        <f aca="false">ROUNDUP(U84*$E83,0)</f>
+        <v>67</v>
+      </c>
+      <c r="V83" s="11" t="n">
+        <f aca="false">ROUNDUP(V84*$E83,0)</f>
+        <v>49</v>
+      </c>
+      <c r="W83" s="11" t="n">
+        <f aca="false">ROUNDUP(W84*$E83,0)</f>
+        <v>54</v>
+      </c>
+      <c r="X83" s="11" t="n">
+        <f aca="false">ROUNDUP(X84*$E83,0)</f>
+        <v>74</v>
+      </c>
+      <c r="Y83" s="11" t="n">
+        <f aca="false">ROUNDUP(Y84*$E83,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Z83" s="11" t="n">
+        <f aca="false">ROUNDUP(Z84*$E83,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AA83" s="11" t="n">
+        <f aca="false">ROUNDUP(AA84*$E83,0)</f>
+        <v>101</v>
+      </c>
+      <c r="AB83" s="11" t="n">
+        <f aca="false">ROUNDUP(AB84*$E83,0)</f>
+        <v>146</v>
+      </c>
+      <c r="AC83" s="11" t="n">
+        <f aca="false">ROUNDUP(AC84*$E83,0)</f>
+        <v>55</v>
+      </c>
+      <c r="AD83" s="11" t="n">
+        <f aca="false">ROUNDUP(AD84*$E83,0)</f>
+        <v>122</v>
+      </c>
+      <c r="AE83" s="11" t="n">
+        <f aca="false">ROUNDUP(AE84*$E83,0)</f>
+        <v>108</v>
+      </c>
+      <c r="AF83" s="11" t="n">
+        <f aca="false">ROUNDUP(AF84*$E83,0)</f>
+        <v>72</v>
+      </c>
+      <c r="AG83" s="11" t="n">
+        <f aca="false">ROUNDUP(AG84*$E83,0)</f>
+        <v>51</v>
+      </c>
+      <c r="AH83" s="11" t="n">
+        <f aca="false">ROUNDUP(AH84*$E83,0)</f>
+        <v>49</v>
+      </c>
+      <c r="AI83" s="11" t="n">
+        <f aca="false">ROUNDUP(AI84*$E83,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AJ83" s="11" t="n">
+        <f aca="false">ROUNDUP(AJ84*$E83,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AK83" s="11" t="n">
+        <f aca="false">ROUNDUP(AK84*$E83,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AL83" s="11" t="n">
+        <f aca="false">ROUNDUP(AL84*$E83,0)</f>
+        <v>113</v>
+      </c>
+      <c r="AM83" s="11" t="n">
+        <f aca="false">ROUNDUP(AM84*$E83,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AN83" s="11" t="n">
+        <f aca="false">ROUNDUP(AN84*$E83,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AO83" s="11" t="n">
+        <f aca="false">ROUNDUP(AO84*$E83,0)</f>
+        <v>74</v>
+      </c>
+      <c r="AP83" s="11" t="n">
+        <f aca="false">ROUNDUP(AP84*$E83,0)</f>
+        <v>99</v>
+      </c>
+      <c r="AQ83" s="11" t="n">
+        <f aca="false">ROUNDUP(AQ84*$E83,0)</f>
+        <v>92</v>
+      </c>
+      <c r="AR83" s="11" t="n">
+        <f aca="false">ROUNDUP(AR84*$E83,0)</f>
+        <v>154</v>
+      </c>
+      <c r="AS83" s="11" t="n">
+        <f aca="false">ROUNDUP(AS84*$E83,0)</f>
+        <v>186</v>
+      </c>
+      <c r="AT83" s="11" t="n">
+        <f aca="false">ROUNDUP(AT84*$E83,0)</f>
+        <v>234</v>
+      </c>
+      <c r="AU83" s="11" t="n">
+        <f aca="false">ROUNDUP(AU84*$E83,0)</f>
+        <v>153</v>
+      </c>
+      <c r="AV83" s="11" t="n">
+        <f aca="false">ROUNDUP(AV84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW83" s="11" t="n">
+        <f aca="false">ROUNDUP(AW84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX83" s="11" t="n">
+        <f aca="false">ROUNDUP(AX84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY83" s="11" t="n">
+        <f aca="false">ROUNDUP(AY84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ83" s="11" t="n">
+        <f aca="false">ROUNDUP(AZ84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA83" s="11" t="n">
+        <f aca="false">ROUNDUP(BA84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB83" s="11" t="n">
+        <f aca="false">ROUNDUP(BB84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC83" s="11" t="n">
+        <f aca="false">ROUNDUP(BC84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD83" s="11" t="n">
+        <f aca="false">ROUNDUP(BD84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE83" s="11" t="n">
+        <f aca="false">ROUNDUP(BE84*$E83,0)</f>
+        <v>51</v>
+      </c>
+      <c r="BF83" s="11" t="n">
+        <f aca="false">ROUNDUP(BF84*$E83,0)</f>
+        <v>83</v>
+      </c>
+      <c r="BG83" s="11" t="n">
+        <f aca="false">ROUNDUP(BG84*$E83,0)</f>
+        <v>63</v>
+      </c>
+      <c r="BH83" s="11" t="n">
+        <f aca="false">ROUNDUP(BH84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI83" s="11" t="n">
+        <f aca="false">ROUNDUP(BI84*$E83,0)</f>
+        <v>93</v>
+      </c>
+      <c r="BJ83" s="11" t="n">
+        <f aca="false">ROUNDUP(BJ84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK83" s="11" t="n">
+        <f aca="false">ROUNDUP(BK84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL83" s="11" t="n">
+        <f aca="false">ROUNDUP(BL84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM83" s="11" t="n">
+        <f aca="false">ROUNDUP(BM84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN83" s="11" t="n">
+        <f aca="false">ROUNDUP(BN84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO83" s="11" t="n">
+        <f aca="false">ROUNDUP(BO84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BP83" s="11" t="n">
+        <f aca="false">ROUNDUP(BP84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ83" s="11" t="n">
+        <f aca="false">ROUNDUP(BQ84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BR83" s="11" t="n">
+        <f aca="false">ROUNDUP(BR84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BS83" s="11" t="n">
+        <f aca="false">ROUNDUP(BS84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BT83" s="11" t="n">
+        <f aca="false">ROUNDUP(BT84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BU83" s="11" t="n">
+        <f aca="false">ROUNDUP(BU84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV83" s="11" t="n">
+        <f aca="false">ROUNDUP(BV84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BW83" s="11" t="n">
+        <f aca="false">ROUNDUP(BW84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BX83" s="11" t="n">
+        <f aca="false">ROUNDUP(BX84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BY83" s="11" t="n">
+        <f aca="false">ROUNDUP(BY84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ83" s="11" t="n">
+        <f aca="false">ROUNDUP(BZ84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CA83" s="11" t="n">
+        <f aca="false">ROUNDUP(CA84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CB83" s="11" t="n">
+        <f aca="false">ROUNDUP(CB84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC83" s="11" t="n">
+        <f aca="false">ROUNDUP(CC84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CD83" s="11" t="n">
+        <f aca="false">ROUNDUP(CD84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CE83" s="11" t="n">
+        <f aca="false">ROUNDUP(CE84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF83" s="11" t="n">
+        <f aca="false">ROUNDUP(CF84*$E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG83" s="11" t="n">
+        <f aca="false">ROUNDUP(CG84*$E83,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="18"/>
+      <c r="D84" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(G5:G80, E5:E80)</f>
+        <v>255</v>
+      </c>
+      <c r="H84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(H5:H80, $E5:$E80)</f>
+        <v>130</v>
+      </c>
+      <c r="I84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(I5:I80, $E5:$E80)</f>
+        <v>130</v>
+      </c>
+      <c r="J84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(J5:J80, $E5:$E80)</f>
+        <v>160</v>
+      </c>
+      <c r="K84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(K5:K80, $E5:$E80)</f>
+        <v>135</v>
+      </c>
+      <c r="L84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(L5:L80, $E5:$E80)</f>
+        <v>135</v>
+      </c>
+      <c r="M84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(M5:M80, $E5:$E80)</f>
+        <v>65</v>
+      </c>
+      <c r="N84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(N5:N80, $E5:$E80)</f>
+        <v>80</v>
+      </c>
+      <c r="O84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(O5:O80, $E5:$E80)</f>
+        <v>95</v>
+      </c>
+      <c r="P84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(P5:P80, $E5:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="Q84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(Q5:Q80, $E5:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="R84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(R5:R80, $E5:$E80)</f>
+        <v>58</v>
+      </c>
+      <c r="S84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(S5:S80, $E5:$E80)</f>
+        <v>82</v>
+      </c>
+      <c r="T84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(T5:T80, $E5:$E80)</f>
+        <v>66</v>
+      </c>
+      <c r="U84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(U5:U80, $E5:$E80)</f>
+        <v>74</v>
+      </c>
+      <c r="V84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(V5:V80, $E5:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="W84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(W5:W80, $E5:$E80)</f>
+        <v>60</v>
+      </c>
+      <c r="X84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(X5:X80, $E5:$E80)</f>
+        <v>82</v>
+      </c>
+      <c r="Y84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(Y5:Y80, $E5:$E80)</f>
+        <v>76</v>
+      </c>
+      <c r="Z84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(Z5:Z80, $E5:$E80)</f>
+        <v>74</v>
+      </c>
+      <c r="AA84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AA5:AA80, $E5:$E80)</f>
+        <v>112</v>
+      </c>
+      <c r="AB84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AB5:AB80, $E5:$E80)</f>
+        <v>162</v>
+      </c>
+      <c r="AC84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AC5:AC80, $E5:$E80)</f>
+        <v>61</v>
+      </c>
+      <c r="AD84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AD5:AD80, $E5:$E80)</f>
+        <v>135</v>
+      </c>
+      <c r="AE84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AE5:AE80, $E5:$E80)</f>
+        <v>120</v>
+      </c>
+      <c r="AF84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AF5:AF80, $E5:$E80)</f>
+        <v>80</v>
+      </c>
+      <c r="AG84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AG5:AG80, $E5:$E80)</f>
+        <v>56</v>
+      </c>
+      <c r="AH84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AH5:AH80, $E5:$E80)</f>
+        <v>54</v>
+      </c>
+      <c r="AI84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AI5:AI80, $E5:$E80)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AJ5:AJ80, $E5:$E80)</f>
+        <v>29</v>
+      </c>
+      <c r="AK84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AK5:AK80, $E5:$E80)</f>
+        <v>17</v>
+      </c>
+      <c r="AL84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AL5:AL80, $E5:$E80)</f>
+        <v>125</v>
+      </c>
+      <c r="AM84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AM5:AM80, $E5:$E80)</f>
+        <v>66</v>
+      </c>
+      <c r="AN84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AN5:AN80, $E5:$E80)</f>
+        <v>31</v>
+      </c>
+      <c r="AO84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AO5:AO80, $E5:$E80)</f>
+        <v>82</v>
+      </c>
+      <c r="AP84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AP5:AP80, $E5:$E80)</f>
+        <v>109</v>
+      </c>
+      <c r="AQ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AQ5:AQ80, $E5:$E80)</f>
+        <v>102</v>
+      </c>
+      <c r="AR84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AR5:AR80, $E5:$E80)</f>
+        <v>171</v>
+      </c>
+      <c r="AS84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AS5:AS80, $E5:$E80)</f>
+        <v>206</v>
+      </c>
+      <c r="AT84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AT5:AT80, $E5:$E80)</f>
+        <v>260</v>
+      </c>
+      <c r="AU84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AU5:AU80, $E5:$E80)</f>
+        <v>169</v>
+      </c>
+      <c r="AV84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AV5:AV80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AW84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AW5:AW80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AX84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AX5:AX80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AY84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AY5:AY80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(AZ5:AZ80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BA84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BA5:BA80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BB84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BB5:BB80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BC84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BC5:BC80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BD84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BD5:BD80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BE84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BE5:BE80, $E5:$E80)</f>
+        <v>56</v>
+      </c>
+      <c r="BF84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BF5:BF80, $E5:$E80)</f>
+        <v>92</v>
+      </c>
+      <c r="BG84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BG5:BG80, $E5:$E80)</f>
+        <v>70</v>
+      </c>
+      <c r="BH84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BH5:BH80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BI84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BI5:BI80, $E5:$E80)</f>
+        <v>103</v>
+      </c>
+      <c r="BJ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BJ5:BJ80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BK84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BK5:BK80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BL84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BL5:BL80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BM84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BM5:BM80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BN84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BN5:BN80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BO84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BO5:BO80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BP84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BP5:BP80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BQ5:BQ80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BR84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BR5:BR80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BS84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BS5:BS80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BT84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BT5:BT80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BU84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BU5:BU80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BV84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BV5:BV80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BW84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BW5:BW80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BX84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BX5:BX80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BY84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BY5:BY80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(BZ5:BZ80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CA84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CA5:CA80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CB84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CB5:CB80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CC84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CC5:CC80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CD84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CD5:CD80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CE84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CE5:CE80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CF84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CF5:CF80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+      <c r="CG84" s="11" t="n">
+        <f aca="false">SUMPRODUCT(CG5:CG80, $E5:$E80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="18"/>
+      <c r="D85" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G85" s="11" t="n">
+        <f aca="false">ROUNDUP(G84*E85,0)</f>
+        <v>281</v>
+      </c>
+      <c r="H85" s="11" t="n">
+        <f aca="false">ROUNDUP(H84*$E85,0)</f>
+        <v>143</v>
+      </c>
+      <c r="I85" s="11" t="n">
+        <f aca="false">ROUNDUP(I84*$E85,0)</f>
+        <v>143</v>
+      </c>
+      <c r="J85" s="11" t="n">
+        <f aca="false">ROUNDUP(J84*$E85,0)</f>
+        <v>176</v>
+      </c>
+      <c r="K85" s="11" t="n">
+        <f aca="false">ROUNDUP(K84*$E85,0)</f>
         <v>149</v>
       </c>
-      <c r="E82" s="11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G82" s="11" t="n">
-        <f aca="false">ROUNDUP(G83*E82,0)</f>
-        <v>230</v>
-      </c>
-      <c r="H82" s="11" t="n">
-        <f aca="false">ROUNDUP(H83*$E82,0)</f>
-        <v>117</v>
-      </c>
-      <c r="I82" s="11" t="n">
-        <f aca="false">ROUNDUP(I83*$E82,0)</f>
-        <v>117</v>
-      </c>
-      <c r="J82" s="11" t="n">
-        <f aca="false">ROUNDUP(J83*$E82,0)</f>
-        <v>144</v>
-      </c>
-      <c r="K82" s="11" t="n">
-        <f aca="false">ROUNDUP(K83*$E82,0)</f>
-        <v>122</v>
-      </c>
-      <c r="L82" s="11" t="n">
-        <f aca="false">ROUNDUP(L83*$E82,0)</f>
-        <v>122</v>
-      </c>
-      <c r="M82" s="11" t="n">
-        <f aca="false">ROUNDUP(M83*$E82,0)</f>
-        <v>59</v>
-      </c>
-      <c r="N82" s="11" t="n">
-        <f aca="false">ROUNDUP(N83*$E82,0)</f>
+      <c r="L85" s="11" t="n">
+        <f aca="false">ROUNDUP(L84*$E85,0)</f>
+        <v>149</v>
+      </c>
+      <c r="M85" s="11" t="n">
+        <f aca="false">ROUNDUP(M84*$E85,0)</f>
         <v>72</v>
       </c>
-      <c r="O82" s="11" t="n">
-        <f aca="false">ROUNDUP(O83*$E82,0)</f>
-        <v>86</v>
-      </c>
-      <c r="P82" s="11" t="n">
-        <f aca="false">ROUNDUP(P83*$E82,0)</f>
-        <v>49</v>
-      </c>
-      <c r="Q82" s="11" t="n">
-        <f aca="false">ROUNDUP(Q83*$E82,0)</f>
-        <v>49</v>
-      </c>
-      <c r="R82" s="11" t="n">
-        <f aca="false">ROUNDUP(R83*$E82,0)</f>
-        <v>53</v>
-      </c>
-      <c r="S82" s="11" t="n">
-        <f aca="false">ROUNDUP(S83*$E82,0)</f>
-        <v>74</v>
-      </c>
-      <c r="T82" s="11" t="n">
-        <f aca="false">ROUNDUP(T83*$E82,0)</f>
+      <c r="N85" s="11" t="n">
+        <f aca="false">ROUNDUP(N84*$E85,0)</f>
+        <v>88</v>
+      </c>
+      <c r="O85" s="11" t="n">
+        <f aca="false">ROUNDUP(O84*$E85,0)</f>
+        <v>105</v>
+      </c>
+      <c r="P85" s="11" t="n">
+        <f aca="false">ROUNDUP(P84*$E85,0)</f>
         <v>60</v>
       </c>
-      <c r="U82" s="11" t="n">
-        <f aca="false">ROUNDUP(U83*$E82,0)</f>
-        <v>67</v>
-      </c>
-      <c r="V82" s="11" t="n">
-        <f aca="false">ROUNDUP(V83*$E82,0)</f>
-        <v>49</v>
-      </c>
-      <c r="W82" s="11" t="n">
-        <f aca="false">ROUNDUP(W83*$E82,0)</f>
-        <v>54</v>
-      </c>
-      <c r="X82" s="11" t="n">
-        <f aca="false">ROUNDUP(X83*$E82,0)</f>
-        <v>74</v>
-      </c>
-      <c r="Y82" s="11" t="n">
-        <f aca="false">ROUNDUP(Y83*$E82,0)</f>
-        <v>69</v>
-      </c>
-      <c r="Z82" s="11" t="n">
-        <f aca="false">ROUNDUP(Z83*$E82,0)</f>
-        <v>67</v>
-      </c>
-      <c r="AA82" s="11" t="n">
-        <f aca="false">ROUNDUP(AA83*$E82,0)</f>
-        <v>101</v>
-      </c>
-      <c r="AB82" s="11" t="n">
-        <f aca="false">ROUNDUP(AB83*$E82,0)</f>
-        <v>146</v>
-      </c>
-      <c r="AC82" s="11" t="n">
-        <f aca="false">ROUNDUP(AC83*$E82,0)</f>
-        <v>55</v>
-      </c>
-      <c r="AD82" s="11" t="n">
-        <f aca="false">ROUNDUP(AD83*$E82,0)</f>
-        <v>122</v>
-      </c>
-      <c r="AE82" s="11" t="n">
-        <f aca="false">ROUNDUP(AE83*$E82,0)</f>
-        <v>108</v>
-      </c>
-      <c r="AF82" s="11" t="n">
-        <f aca="false">ROUNDUP(AF83*$E82,0)</f>
-        <v>72</v>
-      </c>
-      <c r="AG82" s="11" t="n">
-        <f aca="false">ROUNDUP(AG83*$E82,0)</f>
-        <v>51</v>
-      </c>
-      <c r="AH82" s="11" t="n">
-        <f aca="false">ROUNDUP(AH83*$E82,0)</f>
-        <v>49</v>
-      </c>
-      <c r="AI82" s="11" t="n">
-        <f aca="false">ROUNDUP(AI83*$E82,0)</f>
-        <v>34</v>
-      </c>
-      <c r="AJ82" s="11" t="n">
-        <f aca="false">ROUNDUP(AJ83*$E82,0)</f>
-        <v>27</v>
-      </c>
-      <c r="AK82" s="11" t="n">
-        <f aca="false">ROUNDUP(AK83*$E82,0)</f>
-        <v>16</v>
-      </c>
-      <c r="AL82" s="11" t="n">
-        <f aca="false">ROUNDUP(AL83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM82" s="11" t="n">
-        <f aca="false">ROUNDUP(AM83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN82" s="11" t="n">
-        <f aca="false">ROUNDUP(AN83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO82" s="11" t="n">
-        <f aca="false">ROUNDUP(AO83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP82" s="11" t="n">
-        <f aca="false">ROUNDUP(AP83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="11" t="n">
-        <f aca="false">ROUNDUP(AQ83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR82" s="11" t="n">
-        <f aca="false">ROUNDUP(AR83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AS82" s="11" t="n">
-        <f aca="false">ROUNDUP(AS83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT82" s="11" t="n">
-        <f aca="false">ROUNDUP(AT83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AU82" s="11" t="n">
-        <f aca="false">ROUNDUP(AU83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AV82" s="11" t="n">
-        <f aca="false">ROUNDUP(AV83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AW82" s="11" t="n">
-        <f aca="false">ROUNDUP(AW83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AX82" s="11" t="n">
-        <f aca="false">ROUNDUP(AX83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY82" s="11" t="n">
-        <f aca="false">ROUNDUP(AY83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ82" s="11" t="n">
-        <f aca="false">ROUNDUP(AZ83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA82" s="11" t="n">
-        <f aca="false">ROUNDUP(BA83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB82" s="11" t="n">
-        <f aca="false">ROUNDUP(BB83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC82" s="11" t="n">
-        <f aca="false">ROUNDUP(BC83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD82" s="11" t="n">
-        <f aca="false">ROUNDUP(BD83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE82" s="11" t="n">
-        <f aca="false">ROUNDUP(BE83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF82" s="11" t="n">
-        <f aca="false">ROUNDUP(BF83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG82" s="11" t="n">
-        <f aca="false">ROUNDUP(BG83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH82" s="11" t="n">
-        <f aca="false">ROUNDUP(BH83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BI82" s="11" t="n">
-        <f aca="false">ROUNDUP(BI83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ82" s="11" t="n">
-        <f aca="false">ROUNDUP(BJ83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK82" s="11" t="n">
-        <f aca="false">ROUNDUP(BK83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL82" s="11" t="n">
-        <f aca="false">ROUNDUP(BL83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BM82" s="11" t="n">
-        <f aca="false">ROUNDUP(BM83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BN82" s="11" t="n">
-        <f aca="false">ROUNDUP(BN83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BO82" s="11" t="n">
-        <f aca="false">ROUNDUP(BO83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BP82" s="11" t="n">
-        <f aca="false">ROUNDUP(BP83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ82" s="11" t="n">
-        <f aca="false">ROUNDUP(BQ83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR82" s="11" t="n">
-        <f aca="false">ROUNDUP(BR83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS82" s="11" t="n">
-        <f aca="false">ROUNDUP(BS83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT82" s="11" t="n">
-        <f aca="false">ROUNDUP(BT83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BU82" s="11" t="n">
-        <f aca="false">ROUNDUP(BU83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV82" s="11" t="n">
-        <f aca="false">ROUNDUP(BV83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BW82" s="11" t="n">
-        <f aca="false">ROUNDUP(BW83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX82" s="11" t="n">
-        <f aca="false">ROUNDUP(BX83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BY82" s="11" t="n">
-        <f aca="false">ROUNDUP(BY83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ82" s="11" t="n">
-        <f aca="false">ROUNDUP(BZ83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CA82" s="11" t="n">
-        <f aca="false">ROUNDUP(CA83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CB82" s="11" t="n">
-        <f aca="false">ROUNDUP(CB83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CC82" s="11" t="n">
-        <f aca="false">ROUNDUP(CC83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD82" s="11" t="n">
-        <f aca="false">ROUNDUP(CD83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CE82" s="11" t="n">
-        <f aca="false">ROUNDUP(CE83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CF82" s="11" t="n">
-        <f aca="false">ROUNDUP(CF83*$E82,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG82" s="11" t="n">
-        <f aca="false">ROUNDUP(CG83*$E82,0)</f>
+      <c r="Q85" s="11" t="n">
+        <f aca="false">ROUNDUP(Q84*$E85,0)</f>
+        <v>60</v>
+      </c>
+      <c r="R85" s="11" t="n">
+        <f aca="false">ROUNDUP(R84*$E85,0)</f>
+        <v>64</v>
+      </c>
+      <c r="S85" s="11" t="n">
+        <f aca="false">ROUNDUP(S84*$E85,0)</f>
+        <v>91</v>
+      </c>
+      <c r="T85" s="11" t="n">
+        <f aca="false">ROUNDUP(T84*$E85,0)</f>
+        <v>73</v>
+      </c>
+      <c r="U85" s="11" t="n">
+        <f aca="false">ROUNDUP(U84*$E85,0)</f>
+        <v>82</v>
+      </c>
+      <c r="V85" s="11" t="n">
+        <f aca="false">ROUNDUP(V84*$E85,0)</f>
+        <v>60</v>
+      </c>
+      <c r="W85" s="11" t="n">
+        <f aca="false">ROUNDUP(W84*$E85,0)</f>
+        <v>66</v>
+      </c>
+      <c r="X85" s="11" t="n">
+        <f aca="false">ROUNDUP(X84*$E85,0)</f>
+        <v>91</v>
+      </c>
+      <c r="Y85" s="11" t="n">
+        <f aca="false">ROUNDUP(Y84*$E85,0)</f>
+        <v>84</v>
+      </c>
+      <c r="Z85" s="11" t="n">
+        <f aca="false">ROUNDUP(Z84*$E85,0)</f>
+        <v>82</v>
+      </c>
+      <c r="AA85" s="11" t="n">
+        <f aca="false">ROUNDUP(AA84*$E85,0)</f>
+        <v>124</v>
+      </c>
+      <c r="AB85" s="11" t="n">
+        <f aca="false">ROUNDUP(AB84*$E85,0)</f>
+        <v>179</v>
+      </c>
+      <c r="AC85" s="11" t="n">
+        <f aca="false">ROUNDUP(AC84*$E85,0)</f>
+        <v>68</v>
+      </c>
+      <c r="AD85" s="11" t="n">
+        <f aca="false">ROUNDUP(AD84*$E85,0)</f>
+        <v>149</v>
+      </c>
+      <c r="AE85" s="11" t="n">
+        <f aca="false">ROUNDUP(AE84*$E85,0)</f>
+        <v>132</v>
+      </c>
+      <c r="AF85" s="11" t="n">
+        <f aca="false">ROUNDUP(AF84*$E85,0)</f>
+        <v>88</v>
+      </c>
+      <c r="AG85" s="11" t="n">
+        <f aca="false">ROUNDUP(AG84*$E85,0)</f>
+        <v>62</v>
+      </c>
+      <c r="AH85" s="11" t="n">
+        <f aca="false">ROUNDUP(AH84*$E85,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AI85" s="11" t="n">
+        <f aca="false">ROUNDUP(AI84*$E85,0)</f>
+        <v>41</v>
+      </c>
+      <c r="AJ85" s="11" t="n">
+        <f aca="false">ROUNDUP(AJ84*$E85,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AK85" s="11" t="n">
+        <f aca="false">ROUNDUP(AK84*$E85,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AL85" s="11" t="n">
+        <f aca="false">ROUNDUP(AL84*$E85,0)</f>
+        <v>138</v>
+      </c>
+      <c r="AM85" s="11" t="n">
+        <f aca="false">ROUNDUP(AM84*$E85,0)</f>
+        <v>73</v>
+      </c>
+      <c r="AN85" s="11" t="n">
+        <f aca="false">ROUNDUP(AN84*$E85,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AO85" s="11" t="n">
+        <f aca="false">ROUNDUP(AO84*$E85,0)</f>
+        <v>91</v>
+      </c>
+      <c r="AP85" s="11" t="n">
+        <f aca="false">ROUNDUP(AP84*$E85,0)</f>
+        <v>120</v>
+      </c>
+      <c r="AQ85" s="11" t="n">
+        <f aca="false">ROUNDUP(AQ84*$E85,0)</f>
+        <v>113</v>
+      </c>
+      <c r="AR85" s="11" t="n">
+        <f aca="false">ROUNDUP(AR84*$E85,0)</f>
+        <v>189</v>
+      </c>
+      <c r="AS85" s="11" t="n">
+        <f aca="false">ROUNDUP(AS84*$E85,0)</f>
+        <v>227</v>
+      </c>
+      <c r="AT85" s="11" t="n">
+        <f aca="false">ROUNDUP(AT84*$E85,0)</f>
+        <v>286</v>
+      </c>
+      <c r="AU85" s="11" t="n">
+        <f aca="false">ROUNDUP(AU84*$E85,0)</f>
+        <v>186</v>
+      </c>
+      <c r="AV85" s="11" t="n">
+        <f aca="false">ROUNDUP(AV84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW85" s="11" t="n">
+        <f aca="false">ROUNDUP(AW84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX85" s="11" t="n">
+        <f aca="false">ROUNDUP(AX84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY85" s="11" t="n">
+        <f aca="false">ROUNDUP(AY84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="11" t="n">
+        <f aca="false">ROUNDUP(AZ84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA85" s="11" t="n">
+        <f aca="false">ROUNDUP(BA84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB85" s="11" t="n">
+        <f aca="false">ROUNDUP(BB84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC85" s="11" t="n">
+        <f aca="false">ROUNDUP(BC84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD85" s="11" t="n">
+        <f aca="false">ROUNDUP(BD84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE85" s="11" t="n">
+        <f aca="false">ROUNDUP(BE84*$E85,0)</f>
+        <v>62</v>
+      </c>
+      <c r="BF85" s="11" t="n">
+        <f aca="false">ROUNDUP(BF84*$E85,0)</f>
+        <v>102</v>
+      </c>
+      <c r="BG85" s="11" t="n">
+        <f aca="false">ROUNDUP(BG84*$E85,0)</f>
+        <v>77</v>
+      </c>
+      <c r="BH85" s="11" t="n">
+        <f aca="false">ROUNDUP(BH84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI85" s="11" t="n">
+        <f aca="false">ROUNDUP(BI84*$E85,0)</f>
+        <v>114</v>
+      </c>
+      <c r="BJ85" s="11" t="n">
+        <f aca="false">ROUNDUP(BJ84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK85" s="11" t="n">
+        <f aca="false">ROUNDUP(BK84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL85" s="11" t="n">
+        <f aca="false">ROUNDUP(BL84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM85" s="11" t="n">
+        <f aca="false">ROUNDUP(BM84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN85" s="11" t="n">
+        <f aca="false">ROUNDUP(BN84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BO85" s="11" t="n">
+        <f aca="false">ROUNDUP(BO84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BP85" s="11" t="n">
+        <f aca="false">ROUNDUP(BP84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ85" s="11" t="n">
+        <f aca="false">ROUNDUP(BQ84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BR85" s="11" t="n">
+        <f aca="false">ROUNDUP(BR84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BS85" s="11" t="n">
+        <f aca="false">ROUNDUP(BS84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BT85" s="11" t="n">
+        <f aca="false">ROUNDUP(BT84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BU85" s="11" t="n">
+        <f aca="false">ROUNDUP(BU84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BV85" s="11" t="n">
+        <f aca="false">ROUNDUP(BV84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BW85" s="11" t="n">
+        <f aca="false">ROUNDUP(BW84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BX85" s="11" t="n">
+        <f aca="false">ROUNDUP(BX84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BY85" s="11" t="n">
+        <f aca="false">ROUNDUP(BY84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ85" s="11" t="n">
+        <f aca="false">ROUNDUP(BZ84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CA85" s="11" t="n">
+        <f aca="false">ROUNDUP(CA84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CB85" s="11" t="n">
+        <f aca="false">ROUNDUP(CB84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC85" s="11" t="n">
+        <f aca="false">ROUNDUP(CC84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CD85" s="11" t="n">
+        <f aca="false">ROUNDUP(CD84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CE85" s="11" t="n">
+        <f aca="false">ROUNDUP(CE84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF85" s="11" t="n">
+        <f aca="false">ROUNDUP(CF84*$E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG85" s="11" t="n">
+        <f aca="false">ROUNDUP(CG84*$E85,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="18"/>
-      <c r="D83" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(G5:G79, E5:E79)</f>
-        <v>255</v>
-      </c>
-      <c r="H83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(H5:H79, $E5:$E79)</f>
-        <v>130</v>
-      </c>
-      <c r="I83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(I5:I79, $E5:$E79)</f>
-        <v>130</v>
-      </c>
-      <c r="J83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(J5:J79, $E5:$E79)</f>
-        <v>160</v>
-      </c>
-      <c r="K83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(K5:K79, $E5:$E79)</f>
-        <v>135</v>
-      </c>
-      <c r="L83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(L5:L79, $E5:$E79)</f>
-        <v>135</v>
-      </c>
-      <c r="M83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(M5:M79, $E5:$E79)</f>
-        <v>65</v>
-      </c>
-      <c r="N83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(N5:N79, $E5:$E79)</f>
-        <v>80</v>
-      </c>
-      <c r="O83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(O5:O79, $E5:$E79)</f>
-        <v>95</v>
-      </c>
-      <c r="P83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(P5:P79, $E5:$E79)</f>
-        <v>54</v>
-      </c>
-      <c r="Q83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(Q5:Q79, $E5:$E79)</f>
-        <v>54</v>
-      </c>
-      <c r="R83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(R5:R79, $E5:$E79)</f>
-        <v>58</v>
-      </c>
-      <c r="S83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(S5:S79, $E5:$E79)</f>
-        <v>82</v>
-      </c>
-      <c r="T83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(T5:T79, $E5:$E79)</f>
-        <v>66</v>
-      </c>
-      <c r="U83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(U5:U79, $E5:$E79)</f>
-        <v>74</v>
-      </c>
-      <c r="V83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(V5:V79, $E5:$E79)</f>
-        <v>54</v>
-      </c>
-      <c r="W83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(W5:W79, $E5:$E79)</f>
-        <v>60</v>
-      </c>
-      <c r="X83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(X5:X79, $E5:$E79)</f>
-        <v>82</v>
-      </c>
-      <c r="Y83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(Y5:Y79, $E5:$E79)</f>
-        <v>76</v>
-      </c>
-      <c r="Z83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(Z5:Z79, $E5:$E79)</f>
-        <v>74</v>
-      </c>
-      <c r="AA83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AA5:AA79, $E5:$E79)</f>
-        <v>112</v>
-      </c>
-      <c r="AB83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AB5:AB79, $E5:$E79)</f>
-        <v>162</v>
-      </c>
-      <c r="AC83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AC5:AC79, $E5:$E79)</f>
-        <v>61</v>
-      </c>
-      <c r="AD83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AD5:AD79, $E5:$E79)</f>
-        <v>135</v>
-      </c>
-      <c r="AE83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AE5:AE79, $E5:$E79)</f>
-        <v>120</v>
-      </c>
-      <c r="AF83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AF5:AF79, $E5:$E79)</f>
-        <v>80</v>
-      </c>
-      <c r="AG83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AG5:AG79, $E5:$E79)</f>
-        <v>56</v>
-      </c>
-      <c r="AH83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AH5:AH79, $E5:$E79)</f>
-        <v>54</v>
-      </c>
-      <c r="AI83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AI5:AI79, $E5:$E79)</f>
-        <v>37</v>
-      </c>
-      <c r="AJ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AJ5:AJ79, $E5:$E79)</f>
-        <v>29</v>
-      </c>
-      <c r="AK83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AK5:AK79, $E5:$E79)</f>
-        <v>17</v>
-      </c>
-      <c r="AL83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AL5:AL79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AM5:AM79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AN83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AN5:AN79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AO83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AO5:AO79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AP5:AP79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AQ5:AQ79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AR83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AR5:AR79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AS5:AS79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AT83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AT5:AT79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AU83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AU5:AU79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AV83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AV5:AV79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AW83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AW5:AW79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AX83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AX5:AX79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AY83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AY5:AY79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(AZ5:AZ79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BA83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BA5:BA79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BB83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BB5:BB79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BC83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BC5:BC79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BD83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BD5:BD79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BE83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BE5:BE79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BF83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BF5:BF79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BG83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BG5:BG79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BH83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BH5:BH79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BI83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BI5:BI79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BJ5:BJ79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BK83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BK5:BK79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BL83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BL5:BL79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BM83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BM5:BM79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BN83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BN5:BN79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BO83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BO5:BO79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BP83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BP5:BP79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BQ5:BQ79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BR83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BR5:BR79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BS83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BS5:BS79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BT83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BT5:BT79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BU83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BU5:BU79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BV83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BV5:BV79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BW83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BW5:BW79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BX83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BX5:BX79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BY83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BY5:BY79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(BZ5:BZ79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CA83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CA5:CA79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CB83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CB5:CB79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CC83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CC5:CC79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CD83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CD5:CD79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CE83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CE5:CE79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CF83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CF5:CF79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-      <c r="CG83" s="11" t="n">
-        <f aca="false">SUMPRODUCT(CG5:CG79, $E5:$E79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="18"/>
-      <c r="D84" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G84" s="11" t="n">
-        <f aca="false">ROUNDUP(G83*E84,0)</f>
-        <v>281</v>
-      </c>
-      <c r="H84" s="11" t="n">
-        <f aca="false">ROUNDUP(H83*$E84,0)</f>
-        <v>143</v>
-      </c>
-      <c r="I84" s="11" t="n">
-        <f aca="false">ROUNDUP(I83*$E84,0)</f>
-        <v>143</v>
-      </c>
-      <c r="J84" s="11" t="n">
-        <f aca="false">ROUNDUP(J83*$E84,0)</f>
-        <v>176</v>
-      </c>
-      <c r="K84" s="11" t="n">
-        <f aca="false">ROUNDUP(K83*$E84,0)</f>
-        <v>149</v>
-      </c>
-      <c r="L84" s="11" t="n">
-        <f aca="false">ROUNDUP(L83*$E84,0)</f>
-        <v>149</v>
-      </c>
-      <c r="M84" s="11" t="n">
-        <f aca="false">ROUNDUP(M83*$E84,0)</f>
-        <v>72</v>
-      </c>
-      <c r="N84" s="11" t="n">
-        <f aca="false">ROUNDUP(N83*$E84,0)</f>
-        <v>88</v>
-      </c>
-      <c r="O84" s="11" t="n">
-        <f aca="false">ROUNDUP(O83*$E84,0)</f>
-        <v>105</v>
-      </c>
-      <c r="P84" s="11" t="n">
-        <f aca="false">ROUNDUP(P83*$E84,0)</f>
-        <v>60</v>
-      </c>
-      <c r="Q84" s="11" t="n">
-        <f aca="false">ROUNDUP(Q83*$E84,0)</f>
-        <v>60</v>
-      </c>
-      <c r="R84" s="11" t="n">
-        <f aca="false">ROUNDUP(R83*$E84,0)</f>
-        <v>64</v>
-      </c>
-      <c r="S84" s="11" t="n">
-        <f aca="false">ROUNDUP(S83*$E84,0)</f>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M89" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="T84" s="11" t="n">
-        <f aca="false">ROUNDUP(T83*$E84,0)</f>
-        <v>73</v>
-      </c>
-      <c r="U84" s="11" t="n">
-        <f aca="false">ROUNDUP(U83*$E84,0)</f>
-        <v>82</v>
-      </c>
-      <c r="V84" s="11" t="n">
-        <f aca="false">ROUNDUP(V83*$E84,0)</f>
-        <v>60</v>
-      </c>
-      <c r="W84" s="11" t="n">
-        <f aca="false">ROUNDUP(W83*$E84,0)</f>
-        <v>66</v>
-      </c>
-      <c r="X84" s="11" t="n">
-        <f aca="false">ROUNDUP(X83*$E84,0)</f>
-        <v>91</v>
-      </c>
-      <c r="Y84" s="11" t="n">
-        <f aca="false">ROUNDUP(Y83*$E84,0)</f>
-        <v>84</v>
-      </c>
-      <c r="Z84" s="11" t="n">
-        <f aca="false">ROUNDUP(Z83*$E84,0)</f>
-        <v>82</v>
-      </c>
-      <c r="AA84" s="11" t="n">
-        <f aca="false">ROUNDUP(AA83*$E84,0)</f>
-        <v>124</v>
-      </c>
-      <c r="AB84" s="11" t="n">
-        <f aca="false">ROUNDUP(AB83*$E84,0)</f>
-        <v>179</v>
-      </c>
-      <c r="AC84" s="11" t="n">
-        <f aca="false">ROUNDUP(AC83*$E84,0)</f>
-        <v>68</v>
-      </c>
-      <c r="AD84" s="11" t="n">
-        <f aca="false">ROUNDUP(AD83*$E84,0)</f>
-        <v>149</v>
-      </c>
-      <c r="AE84" s="11" t="n">
-        <f aca="false">ROUNDUP(AE83*$E84,0)</f>
-        <v>132</v>
-      </c>
-      <c r="AF84" s="11" t="n">
-        <f aca="false">ROUNDUP(AF83*$E84,0)</f>
-        <v>88</v>
-      </c>
-      <c r="AG84" s="11" t="n">
-        <f aca="false">ROUNDUP(AG83*$E84,0)</f>
-        <v>62</v>
-      </c>
-      <c r="AH84" s="11" t="n">
-        <f aca="false">ROUNDUP(AH83*$E84,0)</f>
-        <v>60</v>
-      </c>
-      <c r="AI84" s="11" t="n">
-        <f aca="false">ROUNDUP(AI83*$E84,0)</f>
-        <v>41</v>
-      </c>
-      <c r="AJ84" s="11" t="n">
-        <f aca="false">ROUNDUP(AJ83*$E84,0)</f>
-        <v>32</v>
-      </c>
-      <c r="AK84" s="11" t="n">
-        <f aca="false">ROUNDUP(AK83*$E84,0)</f>
-        <v>19</v>
-      </c>
-      <c r="AL84" s="11" t="n">
-        <f aca="false">ROUNDUP(AL83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM84" s="11" t="n">
-        <f aca="false">ROUNDUP(AM83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN84" s="11" t="n">
-        <f aca="false">ROUNDUP(AN83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO84" s="11" t="n">
-        <f aca="false">ROUNDUP(AO83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP84" s="11" t="n">
-        <f aca="false">ROUNDUP(AP83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="11" t="n">
-        <f aca="false">ROUNDUP(AQ83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR84" s="11" t="n">
-        <f aca="false">ROUNDUP(AR83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AS84" s="11" t="n">
-        <f aca="false">ROUNDUP(AS83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT84" s="11" t="n">
-        <f aca="false">ROUNDUP(AT83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AU84" s="11" t="n">
-        <f aca="false">ROUNDUP(AU83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AV84" s="11" t="n">
-        <f aca="false">ROUNDUP(AV83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AW84" s="11" t="n">
-        <f aca="false">ROUNDUP(AW83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AX84" s="11" t="n">
-        <f aca="false">ROUNDUP(AX83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY84" s="11" t="n">
-        <f aca="false">ROUNDUP(AY83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ84" s="11" t="n">
-        <f aca="false">ROUNDUP(AZ83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA84" s="11" t="n">
-        <f aca="false">ROUNDUP(BA83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB84" s="11" t="n">
-        <f aca="false">ROUNDUP(BB83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC84" s="11" t="n">
-        <f aca="false">ROUNDUP(BC83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD84" s="11" t="n">
-        <f aca="false">ROUNDUP(BD83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE84" s="11" t="n">
-        <f aca="false">ROUNDUP(BE83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BF84" s="11" t="n">
-        <f aca="false">ROUNDUP(BF83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG84" s="11" t="n">
-        <f aca="false">ROUNDUP(BG83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH84" s="11" t="n">
-        <f aca="false">ROUNDUP(BH83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BI84" s="11" t="n">
-        <f aca="false">ROUNDUP(BI83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ84" s="11" t="n">
-        <f aca="false">ROUNDUP(BJ83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BK84" s="11" t="n">
-        <f aca="false">ROUNDUP(BK83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BL84" s="11" t="n">
-        <f aca="false">ROUNDUP(BL83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BM84" s="11" t="n">
-        <f aca="false">ROUNDUP(BM83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BN84" s="11" t="n">
-        <f aca="false">ROUNDUP(BN83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BO84" s="11" t="n">
-        <f aca="false">ROUNDUP(BO83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BP84" s="11" t="n">
-        <f aca="false">ROUNDUP(BP83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ84" s="11" t="n">
-        <f aca="false">ROUNDUP(BQ83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR84" s="11" t="n">
-        <f aca="false">ROUNDUP(BR83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS84" s="11" t="n">
-        <f aca="false">ROUNDUP(BS83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT84" s="11" t="n">
-        <f aca="false">ROUNDUP(BT83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BU84" s="11" t="n">
-        <f aca="false">ROUNDUP(BU83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV84" s="11" t="n">
-        <f aca="false">ROUNDUP(BV83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BW84" s="11" t="n">
-        <f aca="false">ROUNDUP(BW83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BX84" s="11" t="n">
-        <f aca="false">ROUNDUP(BX83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BY84" s="11" t="n">
-        <f aca="false">ROUNDUP(BY83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ84" s="11" t="n">
-        <f aca="false">ROUNDUP(BZ83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CA84" s="11" t="n">
-        <f aca="false">ROUNDUP(CA83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CB84" s="11" t="n">
-        <f aca="false">ROUNDUP(CB83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CC84" s="11" t="n">
-        <f aca="false">ROUNDUP(CC83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD84" s="11" t="n">
-        <f aca="false">ROUNDUP(CD83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CE84" s="11" t="n">
-        <f aca="false">ROUNDUP(CE83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CF84" s="11" t="n">
-        <f aca="false">ROUNDUP(CF83*$E84,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG84" s="11" t="n">
-        <f aca="false">ROUNDUP(CG83*$E84,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M88" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:AK3"/>
     <mergeCell ref="AL2:BD3"/>
+    <mergeCell ref="BE2:BJ3"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C23:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C83:C85"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/calculators/vehicle-calculator.xlsx
+++ b/calculators/vehicle-calculator.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
   <si>
     <t xml:space="preserve">H.E.A.T. Vehicle Cost Calculator Sheet v1.0</t>
   </si>
@@ -324,22 +324,7 @@
     <t xml:space="preserve">T55</t>
   </si>
   <si>
-    <t xml:space="preserve">BTR60 Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAZ-51 Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAZ-69 Jeep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toyota Hilux Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R75 Ural Motorcycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mil Mi2B</t>
+    <t xml:space="preserve">BTR 80</t>
   </si>
   <si>
     <t xml:space="preserve">Armour</t>
@@ -1113,10 +1098,10 @@
   </sheetPr>
   <dimension ref="C2:DF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="topRight" activeCell="BQ29" activeCellId="0" sqref="BQ29:BQ30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C58" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="BI58" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+      <selection pane="topRight" activeCell="BS77" activeCellId="0" sqref="BS77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,7 +1131,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="22.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="1" width="17.13"/>
@@ -1156,7 +1141,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="3" width="23.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="32.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="32.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="5.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="33.82"/>
@@ -1565,21 +1550,11 @@
       <c r="BS4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="BW4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="BX4" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
       <c r="BY4" s="12"/>
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
@@ -1617,10 +1592,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="15" t="n">
         <v>15</v>
@@ -1745,7 +1720,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="16"/>
       <c r="D6" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15" t="n">
         <v>50</v>
@@ -1873,14 +1848,18 @@
       <c r="BK6" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="BL6" s="15"/>
+      <c r="BL6" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BM6" s="15"/>
       <c r="BN6" s="15"/>
       <c r="BO6" s="15"/>
       <c r="BP6" s="15"/>
       <c r="BQ6" s="15"/>
       <c r="BR6" s="15"/>
-      <c r="BS6" s="15"/>
+      <c r="BS6" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BT6" s="15"/>
       <c r="BU6" s="15"/>
       <c r="BV6" s="15"/>
@@ -1924,7 +1903,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E7" s="15" t="n">
         <v>70</v>
@@ -2045,7 +2024,7 @@
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="16"/>
       <c r="D8" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" s="15" t="n">
         <v>110</v>
@@ -2162,7 +2141,7 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="16"/>
       <c r="D9" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" s="15" t="n">
         <v>190</v>
@@ -2275,7 +2254,7 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="16"/>
       <c r="D10" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E10" s="15" t="n">
         <v>350</v>
@@ -2386,10 +2365,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" s="15" t="n">
         <v>5</v>
@@ -2490,7 +2469,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="16"/>
       <c r="D12" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="15" t="n">
         <v>10</v>
@@ -2603,7 +2582,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="16"/>
       <c r="D13" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" s="15" t="n">
         <v>20</v>
@@ -2716,7 +2695,7 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="16"/>
       <c r="D14" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="15" t="n">
         <v>40</v>
@@ -2829,7 +2808,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="16"/>
       <c r="D15" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="15" t="n">
         <v>80</v>
@@ -2942,7 +2921,7 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="16"/>
       <c r="D16" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E16" s="15" t="n">
         <v>120</v>
@@ -3055,7 +3034,7 @@
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="16"/>
       <c r="D17" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E17" s="15" t="n">
         <v>-10</v>
@@ -3167,10 +3146,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E18" s="15" t="n">
         <v>25</v>
@@ -3286,7 +3265,7 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19" s="15" t="n">
         <v>40</v>
@@ -3397,7 +3376,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E20" s="15" t="n">
         <v>55</v>
@@ -3514,7 +3493,7 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E21" s="15" t="n">
         <v>60</v>
@@ -3626,10 +3605,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E22" s="15" t="n">
         <v>2</v>
@@ -3755,14 +3734,18 @@
       <c r="BK22" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="BL22" s="15"/>
+      <c r="BL22" s="15" t="n">
+        <v>14</v>
+      </c>
       <c r="BM22" s="15"/>
       <c r="BN22" s="15"/>
       <c r="BO22" s="15"/>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="15"/>
       <c r="BR22" s="15"/>
-      <c r="BS22" s="15"/>
+      <c r="BS22" s="15" t="n">
+        <v>7</v>
+      </c>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
       <c r="BV22" s="15"/>
@@ -3805,10 +3788,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E23" s="15" t="n">
         <v>5</v>
@@ -3922,7 +3905,7 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="23"/>
       <c r="D24" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E24" s="15" t="n">
         <v>10</v>
@@ -4056,7 +4039,7 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="23"/>
       <c r="D25" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E25" s="15" t="n">
         <v>20</v>
@@ -4170,13 +4153,13 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="23"/>
       <c r="D26" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E26" s="15" t="n">
         <v>20</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -4286,7 +4269,7 @@
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="23"/>
       <c r="D27" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E27" s="15" t="n">
         <v>20</v>
@@ -4400,13 +4383,13 @@
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="23"/>
       <c r="D28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E28" s="15" t="n">
         <v>30</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -4520,13 +4503,13 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="23"/>
       <c r="D29" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" s="15" t="n">
         <v>40</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -4644,13 +4627,13 @@
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="23"/>
       <c r="D30" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" s="15" t="n">
         <v>50</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -4760,13 +4743,13 @@
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="23"/>
       <c r="D31" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E31" s="15" t="n">
         <v>50</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -4878,13 +4861,13 @@
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="23"/>
       <c r="D32" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E32" s="15" t="n">
         <v>70</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -4996,13 +4979,13 @@
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="23"/>
       <c r="D33" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E33" s="15" t="n">
         <v>110</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G33" s="15" t="n">
         <v>1</v>
@@ -5116,13 +5099,13 @@
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="23"/>
       <c r="D34" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E34" s="15" t="n">
         <v>190</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -5232,7 +5215,7 @@
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="23"/>
       <c r="D35" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" s="15" t="n">
         <v>50</v>
@@ -5346,7 +5329,7 @@
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="23"/>
       <c r="D36" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E36" s="15" t="n">
         <v>60</v>
@@ -5462,7 +5445,7 @@
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="23"/>
       <c r="D37" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E37" s="15" t="n">
         <v>100</v>
@@ -5576,7 +5559,7 @@
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="23"/>
       <c r="D38" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E38" s="15" t="n">
         <v>50</v>
@@ -5690,7 +5673,7 @@
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="23"/>
       <c r="D39" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E39" s="15" t="n">
         <v>55</v>
@@ -5804,7 +5787,7 @@
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="23"/>
       <c r="D40" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" s="15" t="n">
         <v>75</v>
@@ -5924,7 +5907,7 @@
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="23"/>
       <c r="D41" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E41" s="15" t="n">
         <v>70</v>
@@ -6038,7 +6021,7 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="23"/>
       <c r="D42" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E42" s="15" t="n">
         <v>30</v>
@@ -6152,7 +6135,7 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="23"/>
       <c r="D43" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E43" s="15" t="n">
         <v>50</v>
@@ -6268,7 +6251,7 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="23"/>
       <c r="D44" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E44" s="15" t="n">
         <v>30</v>
@@ -6384,7 +6367,7 @@
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="23"/>
       <c r="D45" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E45" s="15" t="n">
         <v>45</v>
@@ -6498,7 +6481,7 @@
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="23"/>
       <c r="D46" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E46" s="15" t="n">
         <v>70</v>
@@ -6614,7 +6597,7 @@
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="23"/>
       <c r="D47" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E47" s="15" t="n">
         <v>50</v>
@@ -6728,7 +6711,7 @@
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="23"/>
       <c r="D48" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E48" s="15" t="n">
         <v>70</v>
@@ -6842,7 +6825,7 @@
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="23"/>
       <c r="D49" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E49" s="15" t="n">
         <v>110</v>
@@ -6956,7 +6939,7 @@
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="23"/>
       <c r="D50" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E50" s="15" t="n">
         <v>40</v>
@@ -7070,7 +7053,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="23"/>
       <c r="D51" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E51" s="15" t="n">
         <v>65</v>
@@ -7184,7 +7167,7 @@
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="23"/>
       <c r="D52" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E52" s="15" t="n">
         <v>90</v>
@@ -7298,7 +7281,7 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="23"/>
       <c r="D53" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E53" s="15" t="n">
         <v>60</v>
@@ -7412,7 +7395,7 @@
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="23"/>
       <c r="D54" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E54" s="15" t="n">
         <v>80</v>
@@ -7526,7 +7509,7 @@
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="23"/>
       <c r="D55" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E55" s="15" t="n">
         <v>100</v>
@@ -7640,7 +7623,7 @@
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="23"/>
       <c r="D56" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E56" s="15" t="n">
         <v>100</v>
@@ -7754,7 +7737,7 @@
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="23"/>
       <c r="D57" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E57" s="15" t="n">
         <v>80</v>
@@ -7868,7 +7851,7 @@
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="23"/>
       <c r="D58" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E58" s="15" t="n">
         <v>10</v>
@@ -7979,14 +7962,18 @@
         <v>1</v>
       </c>
       <c r="BK58" s="19"/>
-      <c r="BL58" s="15"/>
+      <c r="BL58" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BM58" s="15"/>
       <c r="BN58" s="15"/>
       <c r="BO58" s="15"/>
       <c r="BP58" s="15"/>
       <c r="BQ58" s="15"/>
       <c r="BR58" s="15"/>
-      <c r="BS58" s="15"/>
+      <c r="BS58" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BT58" s="15"/>
       <c r="BU58" s="15"/>
       <c r="BV58" s="15"/>
@@ -8029,10 +8016,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C59" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E59" s="15" t="n">
         <v>10</v>
@@ -8146,7 +8133,7 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="23"/>
       <c r="D60" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E60" s="15" t="n">
         <v>15</v>
@@ -8260,7 +8247,7 @@
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="23"/>
       <c r="D61" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E61" s="15" t="n">
         <v>100</v>
@@ -8376,7 +8363,7 @@
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="23"/>
       <c r="D62" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E62" s="15" t="n">
         <v>-10</v>
@@ -8501,10 +8488,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C63" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E63" s="15" t="n">
         <v>5</v>
@@ -8579,7 +8566,9 @@
       <c r="BK63" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="BL63" s="15"/>
+      <c r="BL63" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BM63" s="15"/>
       <c r="BN63" s="15"/>
       <c r="BO63" s="15"/>
@@ -8630,7 +8619,7 @@
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="23"/>
       <c r="D64" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E64" s="15" t="n">
         <v>-5</v>
@@ -8752,7 +8741,7 @@
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="23"/>
       <c r="D65" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E65" s="15" t="n">
         <v>10</v>
@@ -8868,7 +8857,7 @@
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="23"/>
       <c r="D66" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E66" s="15" t="n">
         <v>-10</v>
@@ -8982,7 +8971,7 @@
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="23"/>
       <c r="D67" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E67" s="15" t="n">
         <v>10</v>
@@ -9102,7 +9091,7 @@
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="23"/>
       <c r="D68" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E68" s="15" t="n">
         <v>-5</v>
@@ -9216,7 +9205,7 @@
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="23"/>
       <c r="D69" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E69" s="15" t="n">
         <v>-10</v>
@@ -9330,7 +9319,7 @@
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="23"/>
       <c r="D70" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E70" s="15" t="n">
         <v>-20</v>
@@ -9444,7 +9433,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="23"/>
       <c r="D71" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E71" s="15" t="n">
         <v>15</v>
@@ -9558,7 +9547,7 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="23"/>
       <c r="D72" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E72" s="15" t="n">
         <v>10</v>
@@ -9672,7 +9661,7 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="23"/>
       <c r="D73" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E73" s="15" t="n">
         <v>15</v>
@@ -9790,7 +9779,7 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="23"/>
       <c r="D74" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E74" s="15" t="n">
         <v>5</v>
@@ -9914,7 +9903,7 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="23"/>
       <c r="D75" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E75" s="15" t="n">
         <v>-5</v>
@@ -10042,7 +10031,7 @@
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="23"/>
       <c r="D76" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E76" s="15" t="n">
         <v>5</v>
@@ -10160,7 +10149,7 @@
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="23"/>
       <c r="D77" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E77" s="15" t="n">
         <v>5</v>
@@ -10229,14 +10218,18 @@
       <c r="BK77" s="19" t="n">
         <v>-2</v>
       </c>
-      <c r="BL77" s="15"/>
+      <c r="BL77" s="15" t="n">
+        <v>-1</v>
+      </c>
       <c r="BM77" s="15"/>
       <c r="BN77" s="15"/>
       <c r="BO77" s="15"/>
       <c r="BP77" s="15"/>
       <c r="BQ77" s="15"/>
       <c r="BR77" s="15"/>
-      <c r="BS77" s="15"/>
+      <c r="BS77" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="BT77" s="15"/>
       <c r="BU77" s="15"/>
       <c r="BV77" s="15"/>
@@ -10279,10 +10272,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C78" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E78" s="15" t="n">
         <v>10</v>
@@ -10404,7 +10397,7 @@
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="23"/>
       <c r="D79" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E79" s="15" t="n">
         <v>10</v>
@@ -10550,7 +10543,7 @@
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="23"/>
       <c r="D80" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E80" s="15" t="n">
         <v>10</v>
@@ -10846,27 +10839,27 @@
       </c>
       <c r="BS82" s="27" t="str">
         <f aca="false">BS4</f>
-        <v>BTR60 Transport</v>
-      </c>
-      <c r="BT82" s="27" t="str">
+        <v>BTR 80</v>
+      </c>
+      <c r="BT82" s="27" t="n">
         <f aca="false">BT4</f>
-        <v>GAZ-51 Transport</v>
-      </c>
-      <c r="BU82" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="BU82" s="27" t="n">
         <f aca="false">BU4</f>
-        <v>HAZ-69 Jeep</v>
-      </c>
-      <c r="BV82" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="BV82" s="27" t="n">
         <f aca="false">BV4</f>
-        <v>Toyota Hilux Transport</v>
-      </c>
-      <c r="BW82" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW82" s="27" t="n">
         <f aca="false">BW4</f>
-        <v>R75 Ural Motorcycle</v>
-      </c>
-      <c r="BX82" s="27" t="str">
+        <v>0</v>
+      </c>
+      <c r="BX82" s="27" t="n">
         <f aca="false">BX4</f>
-        <v>Mil Mi2B</v>
+        <v>0</v>
       </c>
       <c r="BY82" s="27" t="n">
         <f aca="false">BY4</f>
@@ -10907,10 +10900,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C83" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E83" s="15" t="n">
         <v>0.9</v>
@@ -11145,7 +11138,7 @@
       </c>
       <c r="BL83" s="15" t="n">
         <f aca="false">ROUNDUP(BL84*$E83,0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BM83" s="15" t="n">
         <f aca="false">ROUNDUP(BM84*$E83,0)</f>
@@ -11173,7 +11166,7 @@
       </c>
       <c r="BS83" s="15" t="n">
         <f aca="false">ROUNDUP(BS84*$E83,0)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BT83" s="15" t="n">
         <f aca="false">ROUNDUP(BT84*$E83,0)</f>
@@ -11235,7 +11228,7 @@
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="23"/>
       <c r="D84" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E84" s="15" t="n">
         <v>1</v>
@@ -11470,7 +11463,7 @@
       </c>
       <c r="BL84" s="15" t="n">
         <f aca="false">SUMPRODUCT(BL5:BL80, $E5:$E80)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BM84" s="15" t="n">
         <f aca="false">SUMPRODUCT(BM5:BM80, $E5:$E80)</f>
@@ -11498,7 +11491,7 @@
       </c>
       <c r="BS84" s="15" t="n">
         <f aca="false">SUMPRODUCT(BS5:BS80, $E5:$E80)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BT84" s="15" t="n">
         <f aca="false">SUMPRODUCT(BT5:BT80, $E5:$E80)</f>
@@ -11560,7 +11553,7 @@
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="23"/>
       <c r="D85" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E85" s="15" t="n">
         <v>1.1</v>
@@ -11795,7 +11788,7 @@
       </c>
       <c r="BL85" s="15" t="n">
         <f aca="false">ROUNDUP(BL84*$E85,0)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="BM85" s="15" t="n">
         <f aca="false">ROUNDUP(BM84*$E85,0)</f>
@@ -11823,7 +11816,7 @@
       </c>
       <c r="BS85" s="15" t="n">
         <f aca="false">ROUNDUP(BS84*$E85,0)</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BT85" s="15" t="n">
         <f aca="false">ROUNDUP(BT84*$E85,0)</f>
@@ -11884,7 +11877,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M89" s="29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
